--- a/Evaluación economica/Evaluacion Economica.xlsx
+++ b/Evaluación economica/Evaluacion Economica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\Desktop\Unal\APM\Proyecto\APM\Evaluación economica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E632F49-B2A2-428D-8B36-272833CF1ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCCF427-BC2F-42B7-916A-9CB8A3B2AA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="750" activeTab="2" xr2:uid="{86E37AEA-507A-4C4C-95B6-664C68D3C326}"/>
   </bookViews>
@@ -474,14 +474,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -931,7 +931,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>46</v>
       </c>
       <c r="C5" t="s">
@@ -990,7 +990,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="31"/>
+      <c r="B6" s="32"/>
       <c r="C6" t="s">
         <v>42</v>
       </c>
@@ -1047,7 +1047,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
+      <c r="B7" s="32"/>
       <c r="C7" t="s">
         <v>43</v>
       </c>
@@ -1092,7 +1092,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="31"/>
+      <c r="B8" s="32"/>
       <c r="C8" t="s">
         <v>45</v>
       </c>
@@ -1149,7 +1149,7 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
+      <c r="B9" s="32"/>
       <c r="C9" t="s">
         <v>79</v>
       </c>
@@ -1279,51 +1279,51 @@
         <v>-2915166399.9560003</v>
       </c>
       <c r="E12" s="18">
-        <f>SUM(E11:E11)-SUM(E5:E8)</f>
+        <f t="shared" ref="E12:P12" si="1">SUM(E11:E11)-SUM(E5:E8)</f>
         <v>376090717.57433331</v>
       </c>
       <c r="F12" s="18">
-        <f>SUM(F11:F11)-SUM(F5:F8)</f>
+        <f t="shared" si="1"/>
         <v>370790415.02895874</v>
       </c>
       <c r="G12" s="18">
-        <f>SUM(G11:G11)-SUM(G5:G8)</f>
+        <f t="shared" si="1"/>
         <v>365329336.63970786</v>
       </c>
       <c r="H12" s="18">
-        <f>SUM(H11:H11)-SUM(H5:H8)</f>
+        <f t="shared" si="1"/>
         <v>359691738.54494578</v>
       </c>
       <c r="I12" s="18">
-        <f>SUM(I11:I11)-SUM(I5:I8)</f>
+        <f t="shared" si="1"/>
         <v>353856824.51686704</v>
       </c>
       <c r="J12" s="18">
-        <f>SUM(J11:J11)-SUM(J5:J8)</f>
+        <f t="shared" si="1"/>
         <v>347795923.34230399</v>
       </c>
       <c r="K12" s="18">
-        <f>SUM(K11:K11)-SUM(K5:K8)</f>
+        <f t="shared" si="1"/>
         <v>341467332.3658644</v>
       </c>
       <c r="L12" s="18">
-        <f>SUM(L11:L11)-SUM(L5:L8)</f>
+        <f t="shared" si="1"/>
         <v>334806038.32094914</v>
       </c>
       <c r="M12" s="18">
-        <f>SUM(M11:M11)-SUM(M5:M8)</f>
+        <f t="shared" si="1"/>
         <v>327700658.00637287</v>
       </c>
       <c r="N12" s="18">
-        <f>SUM(N11:N11)-SUM(N5:N8)</f>
+        <f t="shared" si="1"/>
         <v>319932108.86243618</v>
       </c>
       <c r="O12" s="18">
-        <f>SUM(O11:O11)-SUM(O5:O8)</f>
+        <f t="shared" si="1"/>
         <v>310959434.6011892</v>
       </c>
       <c r="P12" s="18">
-        <f>SUM(P11:P11)-SUM(P5:P8)</f>
+        <f t="shared" si="1"/>
         <v>298636961.94907671</v>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       <c r="E21" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="31">
         <f>IRR(D12:P12)</f>
         <v>5.953676939117436E-2</v>
       </c>
@@ -1450,7 +1450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61104E06-930F-4524-B246-04747DB2E922}">
   <dimension ref="B4:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1506,7 +1506,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>46</v>
       </c>
       <c r="C5" t="s">
@@ -1565,7 +1565,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="31"/>
+      <c r="B6" s="32"/>
       <c r="C6" t="s">
         <v>42</v>
       </c>
@@ -1622,7 +1622,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
+      <c r="B7" s="32"/>
       <c r="C7" t="s">
         <v>43</v>
       </c>
@@ -1667,7 +1667,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="31"/>
+      <c r="B8" s="32"/>
       <c r="C8" t="s">
         <v>44</v>
       </c>
@@ -1724,7 +1724,7 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
+      <c r="B9" s="32"/>
       <c r="C9" t="s">
         <v>73</v>
       </c>
@@ -1781,7 +1781,7 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="31"/>
+      <c r="B10" s="32"/>
       <c r="C10" t="s">
         <v>45</v>
       </c>
@@ -1838,7 +1838,7 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
+      <c r="B11" s="32"/>
       <c r="C11" t="s">
         <v>76</v>
       </c>
@@ -1895,7 +1895,7 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="31"/>
+      <c r="B12" s="32"/>
       <c r="C12" t="s">
         <v>79</v>
       </c>
@@ -1958,7 +1958,7 @@
       <c r="P13" s="24"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C14" t="s">
@@ -2017,7 +2017,7 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="31"/>
+      <c r="B15" s="32"/>
       <c r="C15" t="s">
         <v>47</v>
       </c>
@@ -2220,7 +2220,7 @@
       <c r="E25" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="31">
         <f>IRR(D16:P16)</f>
         <v>6.1302966724562591E-2</v>
       </c>
@@ -2692,12 +2692,12 @@
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
       <c r="G33" s="18">
         <f>SUM(G17:G32)</f>
         <v>32310749.095999997</v>

--- a/Evaluación economica/Evaluacion Economica.xlsx
+++ b/Evaluación economica/Evaluacion Economica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\Desktop\Unal\APM\Proyecto\APM\Evaluación economica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCCF427-BC2F-42B7-916A-9CB8A3B2AA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8F76D0-06B0-40CE-8D10-28B40920A35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="750" activeTab="2" xr2:uid="{86E37AEA-507A-4C4C-95B6-664C68D3C326}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="750" activeTab="3" xr2:uid="{86E37AEA-507A-4C4C-95B6-664C68D3C326}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo Opción 2" sheetId="8" r:id="rId1"/>
@@ -346,7 +346,7 @@
       <name val="Barlow"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,8 +377,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -397,6 +403,152 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -408,25 +560,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -462,10 +602,8 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -483,6 +621,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -876,7 +1046,7 @@
   <dimension ref="B4:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E15" sqref="E15:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -931,341 +1101,341 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="26" t="s">
         <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="17">
-        <v>0</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
         <f>'COSTOS PRY'!$G$33</f>
         <v>32310749.095999997</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="13">
         <f>'COSTOS PRY'!$G$33</f>
         <v>32310749.095999997</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="13">
         <f>'COSTOS PRY'!$G$33</f>
         <v>32310749.095999997</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="13">
         <f>'COSTOS PRY'!$G$33</f>
         <v>32310749.095999997</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="13">
         <f>'COSTOS PRY'!$G$33</f>
         <v>32310749.095999997</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="13">
         <f>'COSTOS PRY'!$G$33</f>
         <v>32310749.095999997</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="13">
         <f>'COSTOS PRY'!$G$33</f>
         <v>32310749.095999997</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="13">
         <f>'COSTOS PRY'!$G$33</f>
         <v>32310749.095999997</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="13">
         <f>'COSTOS PRY'!$G$33</f>
         <v>32310749.095999997</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="13">
         <f>'COSTOS PRY'!$G$33</f>
         <v>32310749.095999997</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="13">
         <f>'COSTOS PRY'!$G$33</f>
         <v>32310749.095999997</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="13">
         <f>'COSTOS PRY'!$G$33</f>
         <v>32310749.095999997</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="32"/>
+      <c r="B6" s="26"/>
       <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="17">
-        <v>0</v>
-      </c>
-      <c r="E6" s="17">
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
         <f>'COSTOS PRY'!$D$35</f>
         <v>25668000</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="13">
         <f>'COSTOS PRY'!$D$35</f>
         <v>25668000</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="13">
         <f>'COSTOS PRY'!$D$35</f>
         <v>25668000</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="13">
         <f>'COSTOS PRY'!$D$35</f>
         <v>25668000</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="13">
         <f>'COSTOS PRY'!$D$35</f>
         <v>25668000</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="13">
         <f>'COSTOS PRY'!$D$35</f>
         <v>25668000</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="13">
         <f>'COSTOS PRY'!$D$35</f>
         <v>25668000</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="13">
         <f>'COSTOS PRY'!$D$35</f>
         <v>25668000</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="13">
         <f>'COSTOS PRY'!$D$35</f>
         <v>25668000</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="13">
         <f>'COSTOS PRY'!$D$35</f>
         <v>25668000</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="13">
         <f>'COSTOS PRY'!$D$35</f>
         <v>25668000</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="13">
         <f>'COSTOS PRY'!$D$35</f>
         <v>25668000</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="32"/>
+      <c r="B7" s="26"/>
       <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="17">
-        <v>0</v>
-      </c>
-      <c r="E7" s="17">
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
         <v>3000000</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="13">
         <v>3000000</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="13">
         <v>3000000</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="13">
         <v>3000000</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="13">
         <v>3000000</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="13">
         <v>3000000</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="13">
         <v>3000000</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="13">
         <v>3000000</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="13">
         <v>3000000</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="13">
         <v>3000000</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="13">
         <v>3000000</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="13">
         <v>3000000</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
+      <c r="B8" s="26"/>
       <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="17">
-        <v>0</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
         <f>Prestamo!H6</f>
         <v>242930533.3296667</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="13">
         <f>Prestamo!$H7</f>
         <v>248230835.87504128</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="13">
         <f>Prestamo!$H8</f>
         <v>253691914.26429215</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="13">
         <f>Prestamo!$H9</f>
         <v>259329512.35905421</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="13">
         <f>Prestamo!$H10</f>
         <v>265164426.38713294</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="13">
         <f>Prestamo!$H11</f>
         <v>271225327.56169599</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="13">
         <f>Prestamo!$H12</f>
         <v>277553918.53813559</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="13">
         <f>Prestamo!$H13</f>
         <v>284215212.58305085</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="13">
         <f>Prestamo!$H14</f>
         <v>291320592.89762712</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="13">
         <f>Prestamo!$H15</f>
         <v>299089142.04156381</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="13">
         <f>Prestamo!$H16</f>
         <v>308061816.30281079</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="13">
         <f>Prestamo!$H17</f>
         <v>320384288.95492327</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="32"/>
+      <c r="B9" s="26"/>
       <c r="C9" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="13">
         <f>Datos!C8</f>
         <v>2915166399.9560003</v>
       </c>
-      <c r="E9" s="17">
-        <v>0</v>
-      </c>
-      <c r="F9" s="17">
-        <v>0</v>
-      </c>
-      <c r="G9" s="17">
-        <v>0</v>
-      </c>
-      <c r="H9" s="17">
-        <v>0</v>
-      </c>
-      <c r="I9" s="17">
-        <v>0</v>
-      </c>
-      <c r="J9" s="17">
-        <v>0</v>
-      </c>
-      <c r="K9" s="17">
-        <v>0</v>
-      </c>
-      <c r="L9" s="17">
-        <v>0</v>
-      </c>
-      <c r="M9" s="17">
-        <v>0</v>
-      </c>
-      <c r="N9" s="17">
-        <v>0</v>
-      </c>
-      <c r="O9" s="17">
-        <v>0</v>
-      </c>
-      <c r="P9" s="17">
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13">
+        <v>0</v>
+      </c>
+      <c r="N9" s="13">
+        <v>0</v>
+      </c>
+      <c r="O9" s="13">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="17">
-        <v>0</v>
-      </c>
-      <c r="E11" s="17">
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
         <f>$I$17</f>
         <v>680000000</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="13">
         <f t="shared" ref="F11:P11" si="0">$I$17</f>
         <v>680000000</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="13">
         <f t="shared" si="0"/>
         <v>680000000</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="13">
         <f t="shared" si="0"/>
         <v>680000000</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="13">
         <f t="shared" si="0"/>
         <v>680000000</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="13">
         <f t="shared" si="0"/>
         <v>680000000</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="13">
         <f t="shared" si="0"/>
         <v>680000000</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="13">
         <f t="shared" si="0"/>
         <v>680000000</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="13">
         <f t="shared" si="0"/>
         <v>680000000</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="13">
         <f t="shared" si="0"/>
         <v>680000000</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="13">
         <f t="shared" si="0"/>
         <v>680000000</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="13">
         <f t="shared" si="0"/>
         <v>680000000</v>
       </c>
@@ -1274,172 +1444,174 @@
       <c r="B12" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="14">
         <f>SUM(D11:D11)-SUM(D5:D9)</f>
         <v>-2915166399.9560003</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="14">
         <f t="shared" ref="E12:P12" si="1">SUM(E11:E11)-SUM(E5:E8)</f>
         <v>376090717.57433331</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="14">
         <f t="shared" si="1"/>
         <v>370790415.02895874</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="14">
         <f t="shared" si="1"/>
         <v>365329336.63970786</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="14">
         <f t="shared" si="1"/>
         <v>359691738.54494578</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="14">
         <f t="shared" si="1"/>
         <v>353856824.51686704</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="14">
         <f t="shared" si="1"/>
         <v>347795923.34230399</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="14">
         <f t="shared" si="1"/>
         <v>341467332.3658644</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="14">
         <f t="shared" si="1"/>
         <v>334806038.32094914</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="14">
         <f t="shared" si="1"/>
         <v>327700658.00637287</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="14">
         <f t="shared" si="1"/>
         <v>319932108.86243618</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="14">
         <f t="shared" si="1"/>
         <v>310959434.6011892</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="14">
         <f t="shared" si="1"/>
         <v>298636961.94907671</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+    <row r="14" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:16" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="E15" s="14" t="s">
+      <c r="C15" s="35"/>
+      <c r="E15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="11">
         <v>0.05</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
       <c r="E16" s="2"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="29">
         <f>SUM(E11:P11)</f>
         <v>8160000000</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="4"/>
       <c r="H17" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="13">
         <v>680000000</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="29">
         <f>SUM(E5:P7)</f>
         <v>731744989.15199995</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="6">
         <f>NPV(F15,E12:P12)</f>
         <v>3067828194.1519456</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="29">
         <f>C17-C18</f>
         <v>7428255010.8479996</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11">
+      <c r="E19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
         <f>D9</f>
         <v>2915166399.9560003</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="29">
         <f>SUM(E8:P8)</f>
         <v>3321197521.094995</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="9">
         <f>F18-F19</f>
         <v>152661794.19594526</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="29">
         <f>C19-C20</f>
         <v>4107057489.7530046</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="25">
         <f>IRR(D12:P12)</f>
         <v>5.953676939117436E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="31">
         <f>C21-(C21*0.19)</f>
         <v>3326716566.6999335</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1450,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61104E06-930F-4524-B246-04747DB2E922}">
   <dimension ref="B4:P26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1506,569 +1678,569 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="26" t="s">
         <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="17">
-        <v>0</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
         <f>'COSTOS PRY'!$G$33</f>
         <v>32310749.095999997</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="13">
         <f>'COSTOS PRY'!$G$33</f>
         <v>32310749.095999997</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="13">
         <f>'COSTOS PRY'!$G$33</f>
         <v>32310749.095999997</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="13">
         <f>'COSTOS PRY'!$G$33</f>
         <v>32310749.095999997</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="13">
         <f>'COSTOS PRY'!$G$33</f>
         <v>32310749.095999997</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="13">
         <f>'COSTOS PRY'!$G$33</f>
         <v>32310749.095999997</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="13">
         <f>'COSTOS PRY'!$G$33</f>
         <v>32310749.095999997</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="13">
         <f>'COSTOS PRY'!$G$33</f>
         <v>32310749.095999997</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="13">
         <f>'COSTOS PRY'!$G$33</f>
         <v>32310749.095999997</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="13">
         <f>'COSTOS PRY'!$G$33</f>
         <v>32310749.095999997</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="13">
         <f>'COSTOS PRY'!$G$33</f>
         <v>32310749.095999997</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="13">
         <f>'COSTOS PRY'!$G$33</f>
         <v>32310749.095999997</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="32"/>
+      <c r="B6" s="26"/>
       <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="17">
-        <v>0</v>
-      </c>
-      <c r="E6" s="17">
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
         <f>'COSTOS PRY'!$D$35</f>
         <v>25668000</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="13">
         <f>'COSTOS PRY'!$D$35</f>
         <v>25668000</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="13">
         <f>'COSTOS PRY'!$D$35</f>
         <v>25668000</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="13">
         <f>'COSTOS PRY'!$D$35</f>
         <v>25668000</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="13">
         <f>'COSTOS PRY'!$D$35</f>
         <v>25668000</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="13">
         <f>'COSTOS PRY'!$D$35</f>
         <v>25668000</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="13">
         <f>'COSTOS PRY'!$D$35</f>
         <v>25668000</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="13">
         <f>'COSTOS PRY'!$D$35</f>
         <v>25668000</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="13">
         <f>'COSTOS PRY'!$D$35</f>
         <v>25668000</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="13">
         <f>'COSTOS PRY'!$D$35</f>
         <v>25668000</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="13">
         <f>'COSTOS PRY'!$D$35</f>
         <v>25668000</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="13">
         <f>'COSTOS PRY'!$D$35</f>
         <v>25668000</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="32"/>
+      <c r="B7" s="26"/>
       <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="17">
-        <v>0</v>
-      </c>
-      <c r="E7" s="17">
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
         <v>3000000</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="13">
         <v>3000000</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="13">
         <v>3000000</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="13">
         <v>3000000</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="13">
         <v>3000000</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="13">
         <v>3000000</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="13">
         <v>3000000</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="13">
         <v>3000000</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="13">
         <v>3000000</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="13">
         <v>3000000</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="13">
         <v>3000000</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="13">
         <v>3000000</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
+      <c r="B8" s="26"/>
       <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="17">
-        <v>0</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
         <v>2346000000</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="13">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
         <v>2346000000</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="13">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
         <v>2346000000</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="13">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
         <v>2346000000</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="13">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
         <v>2346000000</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="13">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
         <v>2346000000</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="13">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
         <v>2346000000</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="13">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
         <v>2346000000</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="13">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
         <v>2346000000</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="13">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
         <v>2346000000</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="13">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
         <v>2346000000</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="13">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
         <v>2346000000</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="32"/>
+      <c r="B9" s="26"/>
       <c r="C9" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="17">
-        <v>0</v>
-      </c>
-      <c r="E9" s="17">
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
         <f>Cotizaciónes!$C$6</f>
         <v>23617760</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="13">
         <f>Cotizaciónes!$C$6</f>
         <v>23617760</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="13">
         <f>Cotizaciónes!$C$6</f>
         <v>23617760</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="13">
         <f>Cotizaciónes!$C$6</f>
         <v>23617760</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="13">
         <f>Cotizaciónes!$C$6</f>
         <v>23617760</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="13">
         <f>Cotizaciónes!$C$6</f>
         <v>23617760</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="13">
         <f>Cotizaciónes!$C$6</f>
         <v>23617760</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="13">
         <f>Cotizaciónes!$C$6</f>
         <v>23617760</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="13">
         <f>Cotizaciónes!$C$6</f>
         <v>23617760</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="13">
         <f>Cotizaciónes!$C$6</f>
         <v>23617760</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="13">
         <f>Cotizaciónes!$C$6</f>
         <v>23617760</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="13">
         <f>Cotizaciónes!$C$6</f>
         <v>23617760</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
+      <c r="B10" s="26"/>
       <c r="C10" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="17">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17">
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
         <f>Prestamo!H6</f>
         <v>242930533.3296667</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="13">
         <f>Prestamo!$H7</f>
         <v>248230835.87504128</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="13">
         <f>Prestamo!$H8</f>
         <v>253691914.26429215</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="13">
         <f>Prestamo!$H9</f>
         <v>259329512.35905421</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="13">
         <f>Prestamo!$H10</f>
         <v>265164426.38713294</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="13">
         <f>Prestamo!$H11</f>
         <v>271225327.56169599</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="13">
         <f>Prestamo!$H12</f>
         <v>277553918.53813559</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="13">
         <f>Prestamo!$H13</f>
         <v>284215212.58305085</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="13">
         <f>Prestamo!$H14</f>
         <v>291320592.89762712</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="13">
         <f>Prestamo!$H15</f>
         <v>299089142.04156381</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="13">
         <f>Prestamo!$H16</f>
         <v>308061816.30281079</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="13">
         <f>Prestamo!$H17</f>
         <v>320384288.95492327</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
+      <c r="B11" s="26"/>
       <c r="C11" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="17">
-        <v>0</v>
-      </c>
-      <c r="E11" s="17">
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
         <f>E8*0.19</f>
         <v>445740000</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="13">
         <f t="shared" ref="F11:P11" si="0">F8*0.19</f>
         <v>445740000</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="13">
         <f t="shared" si="0"/>
         <v>445740000</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="13">
         <f t="shared" si="0"/>
         <v>445740000</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="13">
         <f t="shared" si="0"/>
         <v>445740000</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="13">
         <f t="shared" si="0"/>
         <v>445740000</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="13">
         <f t="shared" si="0"/>
         <v>445740000</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="13">
         <f t="shared" si="0"/>
         <v>445740000</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="13">
         <f t="shared" si="0"/>
         <v>445740000</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="13">
         <f t="shared" si="0"/>
         <v>445740000</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="13">
         <f t="shared" si="0"/>
         <v>445740000</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="13">
         <f t="shared" si="0"/>
         <v>445740000</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
+      <c r="B12" s="26"/>
       <c r="C12" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="13">
         <f>Datos!C8</f>
         <v>2915166399.9560003</v>
       </c>
-      <c r="E12" s="17">
-        <v>0</v>
-      </c>
-      <c r="F12" s="17">
-        <v>0</v>
-      </c>
-      <c r="G12" s="17">
-        <v>0</v>
-      </c>
-      <c r="H12" s="17">
-        <v>0</v>
-      </c>
-      <c r="I12" s="17">
-        <v>0</v>
-      </c>
-      <c r="J12" s="17">
-        <v>0</v>
-      </c>
-      <c r="K12" s="17">
-        <v>0</v>
-      </c>
-      <c r="L12" s="17">
-        <v>0</v>
-      </c>
-      <c r="M12" s="17">
-        <v>0</v>
-      </c>
-      <c r="N12" s="17">
-        <v>0</v>
-      </c>
-      <c r="O12" s="17">
-        <v>0</v>
-      </c>
-      <c r="P12" s="17">
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0</v>
+      </c>
+      <c r="O12" s="13">
+        <v>0</v>
+      </c>
+      <c r="P12" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="26" t="s">
         <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="17">
-        <v>0</v>
-      </c>
-      <c r="E14" s="17">
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13">
         <f>(Datos!$C$6*Datos!$C$2*0.8)+(Datos!$C$7*Datos!$C$3*0.8)</f>
         <v>3264000000</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="13">
         <f>(Datos!$C$6*Datos!$C$2*0.8)+(Datos!$C$7*Datos!$C$3*0.8)</f>
         <v>3264000000</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="13">
         <f>(Datos!$C$6*Datos!$C$2*0.8)+(Datos!$C$7*Datos!$C$3*0.8)</f>
         <v>3264000000</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="13">
         <f>(Datos!$C$6*Datos!$C$2*0.8)+(Datos!$C$7*Datos!$C$3*0.8)</f>
         <v>3264000000</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="13">
         <f>(Datos!$C$6*Datos!$C$2*0.8)+(Datos!$C$7*Datos!$C$3*0.8)</f>
         <v>3264000000</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="13">
         <f>(Datos!$C$6*Datos!$C$2*0.8)+(Datos!$C$7*Datos!$C$3*0.8)</f>
         <v>3264000000</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="13">
         <f>(Datos!$C$6*Datos!$C$2*0.8)+(Datos!$C$7*Datos!$C$3*0.8)</f>
         <v>3264000000</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="13">
         <f>(Datos!$C$6*Datos!$C$2*0.8)+(Datos!$C$7*Datos!$C$3*0.8)</f>
         <v>3264000000</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="13">
         <f>(Datos!$C$6*Datos!$C$2*0.8)+(Datos!$C$7*Datos!$C$3*0.8)</f>
         <v>3264000000</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N14" s="13">
         <f>(Datos!$C$6*Datos!$C$2*0.8)+(Datos!$C$7*Datos!$C$3*0.8)</f>
         <v>3264000000</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O14" s="13">
         <f>(Datos!$C$6*Datos!$C$2*0.8)+(Datos!$C$7*Datos!$C$3*0.8)</f>
         <v>3264000000</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="13">
         <f>(Datos!$C$6*Datos!$C$2*0.8)+(Datos!$C$7*Datos!$C$3*0.8)</f>
         <v>3264000000</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
+      <c r="B15" s="26"/>
       <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="17">
-        <v>0</v>
-      </c>
-      <c r="E15" s="17">
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
         <v>234600000</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="13">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
         <v>234600000</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="13">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
         <v>234600000</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="13">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
         <v>234600000</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="13">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
         <v>234600000</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="13">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
         <v>234600000</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="13">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
         <v>234600000</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="13">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
         <v>234600000</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="13">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
         <v>234600000</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N15" s="13">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
         <v>234600000</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O15" s="13">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
         <v>234600000</v>
       </c>
-      <c r="P15" s="17">
+      <c r="P15" s="13">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
         <v>234600000</v>
       </c>
@@ -2077,167 +2249,169 @@
       <c r="B16" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="14">
         <f>SUM(D14:D15)-SUM(D5:D12)</f>
         <v>-2915166399.9560003</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="14">
         <f t="shared" ref="E16:P16" si="1">SUM(E14:E15)-SUM(E5:E11)</f>
         <v>379332957.57433319</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="14">
         <f t="shared" si="1"/>
         <v>374032655.02895832</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="14">
         <f t="shared" si="1"/>
         <v>368571576.63970757</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="14">
         <f t="shared" si="1"/>
         <v>362933978.54494572</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="14">
         <f t="shared" si="1"/>
         <v>357099064.51686668</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="14">
         <f t="shared" si="1"/>
         <v>351038163.34230375</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="14">
         <f t="shared" si="1"/>
         <v>344709572.36586428</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="14">
         <f t="shared" si="1"/>
         <v>338048278.32094908</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="14">
         <f t="shared" si="1"/>
         <v>330942898.00637245</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="14">
         <f t="shared" si="1"/>
         <v>323174348.86243582</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="14">
         <f t="shared" si="1"/>
         <v>314201674.60118914</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P16" s="14">
         <f t="shared" si="1"/>
         <v>301879201.94907665</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+    <row r="18" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:6" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="E19" s="14" t="s">
+      <c r="C19" s="35"/>
+      <c r="E19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="11">
         <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="29">
         <f>SUM(E14:P15)</f>
         <v>41983200000</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="29">
         <f>SUM(E5:P9)</f>
         <v>29167158109.152</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="6">
         <f>NPV(F19,E16:P16)</f>
         <v>3096564983.1377034</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="29">
         <f>C21-C22</f>
         <v>12816041890.848</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="11">
+      <c r="E23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
         <f>D12</f>
         <v>2915166399.9560003</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="29">
         <f>SUM(E10:P10)</f>
         <v>3321197521.094995</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="9">
         <f>F22-F23</f>
         <v>181398583.18170309</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="29">
         <f>C23-C24</f>
         <v>9494844369.7530041</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="25">
         <f>IRR(D16:P16)</f>
         <v>6.1302966724562591E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="31">
         <f>C25-SUM(E11:P11)</f>
         <v>4145964369.7530041</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2249,7 +2423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C15420-8E99-4DFA-A905-BD022E7B42F7}">
   <dimension ref="C3:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2274,7 +2448,7 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="17">
         <v>21000000</v>
       </c>
     </row>
@@ -2282,7 +2456,7 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="13">
         <f>145669000*1.4</f>
         <v>203936600</v>
       </c>
@@ -2291,13 +2465,13 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="17">
         <f>(Cotizaciónes!C3+Cotizaciónes!C4)*4000</f>
         <v>225000000</v>
       </c>
@@ -2306,7 +2480,7 @@
       <c r="C8" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="13">
         <f>SUM(D4:D7)</f>
         <v>449936600</v>
       </c>
@@ -2323,7 +2497,7 @@
       <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="15">
         <v>8376290.8600000003</v>
       </c>
     </row>
@@ -2331,7 +2505,7 @@
       <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="13">
         <v>22320000</v>
       </c>
     </row>
@@ -2339,7 +2513,7 @@
       <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="16">
         <v>3937000</v>
       </c>
     </row>
@@ -2347,7 +2521,7 @@
       <c r="C14" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="13">
         <f>SUM(D11:D13)</f>
         <v>34633290.859999999</v>
       </c>
@@ -2370,344 +2544,344 @@
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="16">
         <v>908526</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="13">
         <f>D17*0.0696</f>
         <v>63233.409599999999</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="13">
         <f>D17*0.25</f>
         <v>227131.5</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="13">
         <f>SUM(D17:F17)</f>
         <v>1198890.9095999999</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="16">
         <v>908526</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="13">
         <f t="shared" ref="E18:E32" si="0">D18*0.0696</f>
         <v>63233.409599999999</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="13">
         <f t="shared" ref="F18" si="1">D18*0.25</f>
         <v>227131.5</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="13">
         <f t="shared" ref="G18" si="2">SUM(D18:F18)</f>
         <v>1198890.9095999999</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="16">
         <v>908526</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="13">
         <f>D19*0.0696</f>
         <v>63233.409599999999</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="13">
         <f>D19*0.25</f>
         <v>227131.5</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="13">
         <f>SUM(D19:F19)</f>
         <v>1198890.9095999999</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="16">
         <v>908526</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="13">
         <f t="shared" si="0"/>
         <v>63233.409599999999</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="13">
         <f t="shared" ref="F20:F32" si="3">D20*0.25</f>
         <v>227131.5</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="13">
         <f t="shared" ref="G20:G32" si="4">SUM(D20:F20)</f>
         <v>1198890.9095999999</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="16">
         <v>908526</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="13">
         <f t="shared" si="0"/>
         <v>63233.409599999999</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="13">
         <f t="shared" si="3"/>
         <v>227131.5</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="13">
         <f t="shared" si="4"/>
         <v>1198890.9095999999</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="16">
         <v>908526</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="13">
         <f t="shared" si="0"/>
         <v>63233.409599999999</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="13">
         <f t="shared" si="3"/>
         <v>227131.5</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="13">
         <f t="shared" si="4"/>
         <v>1198890.9095999999</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="16">
         <v>908526</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="13">
         <f t="shared" si="0"/>
         <v>63233.409599999999</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="13">
         <f t="shared" si="3"/>
         <v>227131.5</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="13">
         <f t="shared" si="4"/>
         <v>1198890.9095999999</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="17">
         <v>1400000</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="13">
         <f t="shared" si="0"/>
         <v>97440</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="13">
         <f t="shared" si="3"/>
         <v>350000</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="13">
         <f t="shared" si="4"/>
         <v>1847440</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="17">
         <v>1500000</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="13">
         <f t="shared" si="0"/>
         <v>104400</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="13">
         <f t="shared" si="3"/>
         <v>375000</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="13">
         <f t="shared" si="4"/>
         <v>1979400</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="17">
         <v>1500000</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="13">
         <f t="shared" si="0"/>
         <v>104400</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="13">
         <f t="shared" si="3"/>
         <v>375000</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="13">
         <f t="shared" si="4"/>
         <v>1979400</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="17">
         <v>2000000</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="13">
         <f t="shared" si="0"/>
         <v>139200</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="13">
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="13">
         <f t="shared" si="4"/>
         <v>2639200</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="17">
         <v>2000000</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="13">
         <f t="shared" ref="E28:E29" si="5">D28*0.0696</f>
         <v>139200</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="13">
         <f t="shared" ref="F28:F29" si="6">D28*0.25</f>
         <v>500000</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="13">
         <f t="shared" ref="G28:G29" si="7">SUM(D28:F28)</f>
         <v>2639200</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="17">
         <v>2000000</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="13">
         <f t="shared" si="5"/>
         <v>139200</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="13">
         <f t="shared" si="6"/>
         <v>500000</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="13">
         <f t="shared" si="7"/>
         <v>2639200</v>
       </c>
     </row>
     <row r="30" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="17">
         <v>2000000</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="13">
         <f t="shared" si="0"/>
         <v>139200</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="13">
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="13">
         <f t="shared" si="4"/>
         <v>2639200</v>
       </c>
     </row>
     <row r="31" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="17">
         <f>3000000</f>
         <v>3000000</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="13">
         <f t="shared" si="0"/>
         <v>208800</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="13">
         <f t="shared" si="3"/>
         <v>750000</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="13">
         <f t="shared" si="4"/>
         <v>3958800</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="17">
         <f>908526*3</f>
         <v>2725578</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="13">
         <f t="shared" si="0"/>
         <v>189700.22879999998</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="13">
         <f t="shared" si="3"/>
         <v>681394.5</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="13">
         <f t="shared" si="4"/>
         <v>3596672.7288000002</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="18">
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="14">
         <f>SUM(G17:G32)</f>
         <v>32310749.095999997</v>
       </c>
     </row>
     <row r="35" spans="3:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="21">
         <v>25668000</v>
       </c>
     </row>
@@ -2715,7 +2889,7 @@
       <c r="C37" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="14">
         <f>SUM('Flujo Opción 1'!E5:E9)</f>
         <v>2430596509.0960002</v>
       </c>
@@ -2733,10 +2907,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6DFA2B-1446-47C8-8D87-281B32239489}">
-  <dimension ref="B2:D11"/>
+  <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2745,93 +2919,94 @@
     <col min="3" max="3" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="36">
         <f>17000000*20/100</f>
         <v>3400000</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="37">
         <f>17000000*20/100</f>
         <v>3400000</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="38">
         <v>210</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="38">
         <v>480</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="38">
         <v>500</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="38">
         <v>700</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="38">
         <f>'COSTOS PRY'!D8+'COSTOS PRY'!D14+'COSTOS PRY'!D37</f>
         <v>2915166399.9560003</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="39">
         <v>0.02</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="38">
         <f>'COSTOS PRY'!D8</f>
         <v>449936600</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="40">
         <f>'COSTOS PRY'!D14</f>
         <v>34633290.859999999</v>
       </c>
@@ -2865,7 +3040,7 @@
       <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="13">
         <f>Datos!C8</f>
         <v>2915166399.9560003</v>
       </c>
@@ -2874,7 +3049,7 @@
       <c r="B3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="12">
         <f>Datos!C9</f>
         <v>0.02</v>
       </c>
@@ -2894,11 +3069,11 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="13">
         <f>-C2</f>
         <v>-2915166399.9560003</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="13">
         <f>H5</f>
         <v>-2915166399.9560003</v>
       </c>
@@ -2907,11 +3082,11 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="13">
         <f>-I5/(13-G6)</f>
         <v>242930533.3296667</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="13">
         <f>(I5*(1+$C$3)+H6)</f>
         <v>-2730539194.6254539</v>
       </c>
@@ -2920,11 +3095,11 @@
       <c r="G7">
         <v>2</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="13">
         <f>-I6/(13-G7)</f>
         <v>248230835.87504128</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="13">
         <f t="shared" ref="I7:I16" si="0">(I6*(1+$C$3)+H7)</f>
         <v>-2536919142.6429214</v>
       </c>
@@ -2933,11 +3108,11 @@
       <c r="G8">
         <v>3</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="13">
         <f t="shared" ref="H8:H16" si="1">-I7/(13-G8)</f>
         <v>253691914.26429215</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="13">
         <f t="shared" si="0"/>
         <v>-2333965611.2314878</v>
       </c>
@@ -2946,11 +3121,11 @@
       <c r="G9">
         <v>4</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="13">
         <f t="shared" si="1"/>
         <v>259329512.35905421</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="13">
         <f t="shared" si="0"/>
         <v>-2121315411.0970635</v>
       </c>
@@ -2959,11 +3134,11 @@
       <c r="G10">
         <v>5</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="13">
         <f t="shared" si="1"/>
         <v>265164426.38713294</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="13">
         <f t="shared" si="0"/>
         <v>-1898577292.9318721</v>
       </c>
@@ -2972,11 +3147,11 @@
       <c r="G11">
         <v>6</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="13">
         <f t="shared" si="1"/>
         <v>271225327.56169599</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="13">
         <f t="shared" si="0"/>
         <v>-1665323511.2288136</v>
       </c>
@@ -2985,11 +3160,11 @@
       <c r="G12">
         <v>7</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="13">
         <f t="shared" si="1"/>
         <v>277553918.53813559</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="13">
         <f t="shared" si="0"/>
         <v>-1421076062.9152544</v>
       </c>
@@ -2998,11 +3173,11 @@
       <c r="G13">
         <v>8</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="13">
         <f t="shared" si="1"/>
         <v>284215212.58305085</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="13">
         <f t="shared" si="0"/>
         <v>-1165282371.5905085</v>
       </c>
@@ -3011,11 +3186,11 @@
       <c r="G14">
         <v>9</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="13">
         <f t="shared" si="1"/>
         <v>291320592.89762712</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="13">
         <f t="shared" si="0"/>
         <v>-897267426.12469149</v>
       </c>
@@ -3024,11 +3199,11 @@
       <c r="G15">
         <v>10</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="13">
         <f t="shared" si="1"/>
         <v>299089142.04156381</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="13">
         <f t="shared" si="0"/>
         <v>-616123632.60562158</v>
       </c>
@@ -3037,11 +3212,11 @@
       <c r="G16">
         <v>11</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="13">
         <f t="shared" si="1"/>
         <v>308061816.30281079</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="13">
         <f t="shared" si="0"/>
         <v>-320384288.95492327</v>
       </c>
@@ -3050,11 +3225,11 @@
       <c r="G17">
         <v>12</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="13">
         <f>-I16/(13-G17)</f>
         <v>320384288.95492327</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="13">
         <f>0</f>
         <v>0</v>
       </c>
@@ -3104,7 +3279,7 @@
       <c r="B6" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="13">
         <f>(25000+12*811)*34*20</f>
         <v>23617760</v>
       </c>

--- a/Evaluación economica/Evaluacion Economica.xlsx
+++ b/Evaluación economica/Evaluacion Economica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\Desktop\Unal\APM\Proyecto\APM\Evaluación economica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8F76D0-06B0-40CE-8D10-28B40920A35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980382AC-3214-464F-B78D-27A579877686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="750" activeTab="3" xr2:uid="{86E37AEA-507A-4C4C-95B6-664C68D3C326}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="750" xr2:uid="{86E37AEA-507A-4C4C-95B6-664C68D3C326}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo Opción 2" sheetId="8" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
   <si>
     <t>INVERSION</t>
   </si>
@@ -200,12 +200,6 @@
     <t>Ventas mensuales</t>
   </si>
   <si>
-    <t>Prestamo</t>
-  </si>
-  <si>
-    <t>Valor del prestamo</t>
-  </si>
-  <si>
     <t>Periodo</t>
   </si>
   <si>
@@ -294,6 +288,24 @@
   </si>
   <si>
     <t>Primeros meses</t>
+  </si>
+  <si>
+    <t>Prestamo Opción 1</t>
+  </si>
+  <si>
+    <t>Valor del prestamo 1</t>
+  </si>
+  <si>
+    <t>Prestamo Opción 2</t>
+  </si>
+  <si>
+    <t>Cobro mensuales</t>
+  </si>
+  <si>
+    <t>Valor del prestamo 2</t>
+  </si>
+  <si>
+    <t>GANANCIA O COSTO OPORTUNIDAD</t>
   </si>
 </sst>
 </file>
@@ -615,12 +627,6 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -639,20 +645,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1045,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6E15CF-6437-416C-BEA1-56EE97CC6200}">
   <dimension ref="B4:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15:F21"/>
     </sheetView>
   </sheetViews>
@@ -1101,7 +1113,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="39" t="s">
         <v>46</v>
       </c>
       <c r="C5" t="s">
@@ -1160,7 +1172,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="26"/>
+      <c r="B6" s="39"/>
       <c r="C6" t="s">
         <v>42</v>
       </c>
@@ -1217,7 +1229,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
+      <c r="B7" s="39"/>
       <c r="C7" t="s">
         <v>43</v>
       </c>
@@ -1262,7 +1274,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
+      <c r="B8" s="39"/>
       <c r="C8" t="s">
         <v>45</v>
       </c>
@@ -1270,62 +1282,62 @@
         <v>0</v>
       </c>
       <c r="E8" s="13">
-        <f>Prestamo!H6</f>
-        <v>242930533.3296667</v>
+        <f>Prestamo!L6</f>
+        <v>37494716.666666664</v>
       </c>
       <c r="F8" s="13">
-        <f>Prestamo!$H7</f>
-        <v>248230835.87504128</v>
+        <f>Prestamo!$L7</f>
+        <v>38312783.212121211</v>
       </c>
       <c r="G8" s="13">
-        <f>Prestamo!$H8</f>
-        <v>253691914.26429215</v>
+        <f>Prestamo!$L8</f>
+        <v>39155664.442787878</v>
       </c>
       <c r="H8" s="13">
-        <f>Prestamo!$H9</f>
-        <v>259329512.35905421</v>
+        <f>Prestamo!$L9</f>
+        <v>40025790.319294274</v>
       </c>
       <c r="I8" s="13">
-        <f>Prestamo!$H10</f>
-        <v>265164426.38713294</v>
+        <f>Prestamo!$L10</f>
+        <v>40926370.601478398</v>
       </c>
       <c r="J8" s="13">
-        <f>Prestamo!$H11</f>
-        <v>271225327.56169599</v>
+        <f>Prestamo!$L11</f>
+        <v>41861830.500940762</v>
       </c>
       <c r="K8" s="13">
-        <f>Prestamo!$H12</f>
-        <v>277553918.53813559</v>
+        <f>Prestamo!$L12</f>
+        <v>42838606.545962714</v>
       </c>
       <c r="L8" s="13">
-        <f>Prestamo!$H13</f>
-        <v>284215212.58305085</v>
+        <f>Prestamo!$L13</f>
+        <v>43866733.103065819</v>
       </c>
       <c r="M8" s="13">
-        <f>Prestamo!$H14</f>
-        <v>291320592.89762712</v>
+        <f>Prestamo!$L14</f>
+        <v>44963401.430642463</v>
       </c>
       <c r="N8" s="13">
-        <f>Prestamo!$H15</f>
-        <v>299089142.04156381</v>
+        <f>Prestamo!$L15</f>
+        <v>46162425.468792938</v>
       </c>
       <c r="O8" s="13">
-        <f>Prestamo!$H16</f>
-        <v>308061816.30281079</v>
+        <f>Prestamo!$L16</f>
+        <v>47547298.232856721</v>
       </c>
       <c r="P8" s="13">
-        <f>Prestamo!$H17</f>
-        <v>320384288.95492327</v>
+        <f>Prestamo!$L17</f>
+        <v>49449190.162170991</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
+      <c r="B9" s="39"/>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D9" s="13">
-        <f>Datos!C8</f>
-        <v>2915166399.9560003</v>
+        <f>Datos!C9</f>
+        <v>484569890.86000001</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
@@ -1386,123 +1398,123 @@
         <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D11" s="13">
         <v>0</v>
       </c>
       <c r="E11" s="13">
         <f>$I$17</f>
-        <v>680000000</v>
+        <v>165000000</v>
       </c>
       <c r="F11" s="13">
         <f t="shared" ref="F11:P11" si="0">$I$17</f>
-        <v>680000000</v>
+        <v>165000000</v>
       </c>
       <c r="G11" s="13">
         <f t="shared" si="0"/>
-        <v>680000000</v>
+        <v>165000000</v>
       </c>
       <c r="H11" s="13">
         <f t="shared" si="0"/>
-        <v>680000000</v>
+        <v>165000000</v>
       </c>
       <c r="I11" s="13">
         <f t="shared" si="0"/>
-        <v>680000000</v>
+        <v>165000000</v>
       </c>
       <c r="J11" s="13">
         <f t="shared" si="0"/>
-        <v>680000000</v>
+        <v>165000000</v>
       </c>
       <c r="K11" s="13">
         <f t="shared" si="0"/>
-        <v>680000000</v>
+        <v>165000000</v>
       </c>
       <c r="L11" s="13">
         <f t="shared" si="0"/>
-        <v>680000000</v>
+        <v>165000000</v>
       </c>
       <c r="M11" s="13">
         <f t="shared" si="0"/>
-        <v>680000000</v>
+        <v>165000000</v>
       </c>
       <c r="N11" s="13">
         <f t="shared" si="0"/>
-        <v>680000000</v>
+        <v>165000000</v>
       </c>
       <c r="O11" s="13">
         <f t="shared" si="0"/>
-        <v>680000000</v>
+        <v>165000000</v>
       </c>
       <c r="P11" s="13">
         <f t="shared" si="0"/>
-        <v>680000000</v>
+        <v>165000000</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D12" s="14">
         <f>SUM(D11:D11)-SUM(D5:D9)</f>
-        <v>-2915166399.9560003</v>
+        <v>-484569890.86000001</v>
       </c>
       <c r="E12" s="14">
         <f t="shared" ref="E12:P12" si="1">SUM(E11:E11)-SUM(E5:E8)</f>
-        <v>376090717.57433331</v>
+        <v>66526534.237333328</v>
       </c>
       <c r="F12" s="14">
         <f t="shared" si="1"/>
-        <v>370790415.02895874</v>
+        <v>65708467.691878796</v>
       </c>
       <c r="G12" s="14">
         <f t="shared" si="1"/>
-        <v>365329336.63970786</v>
+        <v>64865586.461212128</v>
       </c>
       <c r="H12" s="14">
         <f t="shared" si="1"/>
-        <v>359691738.54494578</v>
+        <v>63995460.584705725</v>
       </c>
       <c r="I12" s="14">
         <f t="shared" si="1"/>
-        <v>353856824.51686704</v>
+        <v>63094880.302521601</v>
       </c>
       <c r="J12" s="14">
         <f t="shared" si="1"/>
-        <v>347795923.34230399</v>
+        <v>62159420.403059244</v>
       </c>
       <c r="K12" s="14">
         <f t="shared" si="1"/>
-        <v>341467332.3658644</v>
+        <v>61182644.358037293</v>
       </c>
       <c r="L12" s="14">
         <f t="shared" si="1"/>
-        <v>334806038.32094914</v>
+        <v>60154517.800934181</v>
       </c>
       <c r="M12" s="14">
         <f t="shared" si="1"/>
-        <v>327700658.00637287</v>
+        <v>59057849.473357528</v>
       </c>
       <c r="N12" s="14">
         <f t="shared" si="1"/>
-        <v>319932108.86243618</v>
+        <v>57858825.435207069</v>
       </c>
       <c r="O12" s="14">
         <f t="shared" si="1"/>
-        <v>310959434.6011892</v>
+        <v>56473952.671143278</v>
       </c>
       <c r="P12" s="14">
         <f t="shared" si="1"/>
-        <v>298636961.94907671</v>
+        <v>54572060.741829008</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:16" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="35"/>
+      <c r="C15" s="41"/>
       <c r="E15" s="10" t="s">
         <v>1</v>
       </c>
@@ -1511,35 +1523,35 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
       <c r="E16" s="2"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="27">
         <f>SUM(E11:P11)</f>
-        <v>8160000000</v>
+        <v>1980000000</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="4"/>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I17" s="13">
-        <v>680000000</v>
+        <v>165000000</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="27">
         <f>SUM(E5:P7)</f>
         <v>731744989.15199995</v>
       </c>
@@ -1548,64 +1560,64 @@
       </c>
       <c r="F18" s="6">
         <f>NPV(F15,E12:P12)</f>
-        <v>3067828194.1519456</v>
+        <v>548654224.2335633</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="27">
         <f>C17-C18</f>
-        <v>7428255010.8479996</v>
+        <v>1248255010.848</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F19" s="7">
         <f>D9</f>
-        <v>2915166399.9560003</v>
+        <v>484569890.86000001</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="27">
         <f>SUM(E8:P8)</f>
-        <v>3321197521.094995</v>
+        <v>512604810.68678093</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="9">
         <f>F18-F19</f>
-        <v>152661794.19594526</v>
+        <v>64084333.37356329</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="27">
         <f>C19-C20</f>
-        <v>4107057489.7530046</v>
+        <v>735650200.16121912</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="25">
         <f>IRR(D12:P12)</f>
-        <v>5.953676939117436E-2</v>
+        <v>7.3543200332999881E-2</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="29">
         <f>C21-(C21*0.19)</f>
-        <v>3326716566.6999335</v>
+        <v>595876662.13058746</v>
       </c>
     </row>
   </sheetData>
@@ -1622,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61104E06-930F-4524-B246-04747DB2E922}">
   <dimension ref="B4:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1678,7 +1690,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="39" t="s">
         <v>46</v>
       </c>
       <c r="C5" t="s">
@@ -1737,7 +1749,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="26"/>
+      <c r="B6" s="39"/>
       <c r="C6" t="s">
         <v>42</v>
       </c>
@@ -1794,7 +1806,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
+      <c r="B7" s="39"/>
       <c r="C7" t="s">
         <v>43</v>
       </c>
@@ -1839,7 +1851,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
+      <c r="B8" s="39"/>
       <c r="C8" t="s">
         <v>44</v>
       </c>
@@ -1848,57 +1860,57 @@
       </c>
       <c r="E8" s="13">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
-        <v>2346000000</v>
+        <v>1066960000</v>
       </c>
       <c r="F8" s="13">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
-        <v>2346000000</v>
+        <v>1066960000</v>
       </c>
       <c r="G8" s="13">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
-        <v>2346000000</v>
+        <v>1066960000</v>
       </c>
       <c r="H8" s="13">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
-        <v>2346000000</v>
+        <v>1066960000</v>
       </c>
       <c r="I8" s="13">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
-        <v>2346000000</v>
+        <v>1066960000</v>
       </c>
       <c r="J8" s="13">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
-        <v>2346000000</v>
+        <v>1066960000</v>
       </c>
       <c r="K8" s="13">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
-        <v>2346000000</v>
+        <v>1066960000</v>
       </c>
       <c r="L8" s="13">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
-        <v>2346000000</v>
+        <v>1066960000</v>
       </c>
       <c r="M8" s="13">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
-        <v>2346000000</v>
+        <v>1066960000</v>
       </c>
       <c r="N8" s="13">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
-        <v>2346000000</v>
+        <v>1066960000</v>
       </c>
       <c r="O8" s="13">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
-        <v>2346000000</v>
+        <v>1066960000</v>
       </c>
       <c r="P8" s="13">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
-        <v>2346000000</v>
+        <v>1066960000</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
+      <c r="B9" s="39"/>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D9" s="13">
         <v>0</v>
@@ -1953,7 +1965,7 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
+      <c r="B10" s="39"/>
       <c r="C10" t="s">
         <v>45</v>
       </c>
@@ -1962,118 +1974,118 @@
       </c>
       <c r="E10" s="13">
         <f>Prestamo!H6</f>
-        <v>242930533.3296667</v>
+        <v>136343866.66299999</v>
       </c>
       <c r="F10" s="13">
         <f>Prestamo!$H7</f>
-        <v>248230835.87504128</v>
+        <v>139318641.93564728</v>
       </c>
       <c r="G10" s="13">
         <f>Prestamo!$H8</f>
-        <v>253691914.26429215</v>
+        <v>142383652.05823153</v>
       </c>
       <c r="H10" s="13">
         <f>Prestamo!$H9</f>
-        <v>259329512.35905421</v>
+        <v>145547733.2150811</v>
       </c>
       <c r="I10" s="13">
         <f>Prestamo!$H10</f>
-        <v>265164426.38713294</v>
+        <v>148822557.21242046</v>
       </c>
       <c r="J10" s="13">
         <f>Prestamo!$H11</f>
-        <v>271225327.56169599</v>
+        <v>152224215.66299009</v>
       </c>
       <c r="K10" s="13">
         <f>Prestamo!$H12</f>
-        <v>277553918.53813559</v>
+        <v>155776114.02845988</v>
       </c>
       <c r="L10" s="13">
         <f>Prestamo!$H13</f>
-        <v>284215212.58305085</v>
+        <v>159514740.76514289</v>
       </c>
       <c r="M10" s="13">
         <f>Prestamo!$H14</f>
-        <v>291320592.89762712</v>
+        <v>163502609.28427145</v>
       </c>
       <c r="N10" s="13">
         <f>Prestamo!$H15</f>
-        <v>299089142.04156381</v>
+        <v>167862678.86518535</v>
       </c>
       <c r="O10" s="13">
         <f>Prestamo!$H16</f>
-        <v>308061816.30281079</v>
+        <v>172898559.23114091</v>
       </c>
       <c r="P10" s="13">
         <f>Prestamo!$H17</f>
-        <v>320384288.95492327</v>
+        <v>179814501.60038656</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="26"/>
+      <c r="B11" s="39"/>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="13">
         <v>0</v>
       </c>
       <c r="E11" s="13">
         <f>E8*0.19</f>
-        <v>445740000</v>
+        <v>202722400</v>
       </c>
       <c r="F11" s="13">
         <f t="shared" ref="F11:P11" si="0">F8*0.19</f>
-        <v>445740000</v>
+        <v>202722400</v>
       </c>
       <c r="G11" s="13">
         <f t="shared" si="0"/>
-        <v>445740000</v>
+        <v>202722400</v>
       </c>
       <c r="H11" s="13">
         <f t="shared" si="0"/>
-        <v>445740000</v>
+        <v>202722400</v>
       </c>
       <c r="I11" s="13">
         <f t="shared" si="0"/>
-        <v>445740000</v>
+        <v>202722400</v>
       </c>
       <c r="J11" s="13">
         <f t="shared" si="0"/>
-        <v>445740000</v>
+        <v>202722400</v>
       </c>
       <c r="K11" s="13">
         <f t="shared" si="0"/>
-        <v>445740000</v>
+        <v>202722400</v>
       </c>
       <c r="L11" s="13">
         <f t="shared" si="0"/>
-        <v>445740000</v>
+        <v>202722400</v>
       </c>
       <c r="M11" s="13">
         <f t="shared" si="0"/>
-        <v>445740000</v>
+        <v>202722400</v>
       </c>
       <c r="N11" s="13">
         <f t="shared" si="0"/>
-        <v>445740000</v>
+        <v>202722400</v>
       </c>
       <c r="O11" s="13">
         <f t="shared" si="0"/>
-        <v>445740000</v>
+        <v>202722400</v>
       </c>
       <c r="P11" s="13">
         <f t="shared" si="0"/>
-        <v>445740000</v>
+        <v>202722400</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="26"/>
+      <c r="B12" s="39"/>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D12" s="13">
         <f>Datos!C8</f>
-        <v>2915166399.9560003</v>
+        <v>1636126399.9559999</v>
       </c>
       <c r="E12" s="13">
         <v>0</v>
@@ -2130,7 +2142,7 @@
       <c r="P13" s="19"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="39" t="s">
         <v>48</v>
       </c>
       <c r="C14" t="s">
@@ -2140,56 +2152,56 @@
         <v>0</v>
       </c>
       <c r="E14" s="13">
-        <f>(Datos!$C$6*Datos!$C$2*0.8)+(Datos!$C$7*Datos!$C$3*0.8)</f>
-        <v>3264000000</v>
+        <f>(Datos!$C$6*Datos!$C$2*0.9)+(Datos!$C$7*Datos!$C$3*0.9)</f>
+        <v>1599312000</v>
       </c>
       <c r="F14" s="13">
-        <f>(Datos!$C$6*Datos!$C$2*0.8)+(Datos!$C$7*Datos!$C$3*0.8)</f>
-        <v>3264000000</v>
+        <f>(Datos!$C$6*Datos!$C$2*0.9)+(Datos!$C$7*Datos!$C$3*0.9)</f>
+        <v>1599312000</v>
       </c>
       <c r="G14" s="13">
-        <f>(Datos!$C$6*Datos!$C$2*0.8)+(Datos!$C$7*Datos!$C$3*0.8)</f>
-        <v>3264000000</v>
+        <f>(Datos!$C$6*Datos!$C$2*0.9)+(Datos!$C$7*Datos!$C$3*0.9)</f>
+        <v>1599312000</v>
       </c>
       <c r="H14" s="13">
-        <f>(Datos!$C$6*Datos!$C$2*0.8)+(Datos!$C$7*Datos!$C$3*0.8)</f>
-        <v>3264000000</v>
+        <f>(Datos!$C$6*Datos!$C$2*0.9)+(Datos!$C$7*Datos!$C$3*0.9)</f>
+        <v>1599312000</v>
       </c>
       <c r="I14" s="13">
-        <f>(Datos!$C$6*Datos!$C$2*0.8)+(Datos!$C$7*Datos!$C$3*0.8)</f>
-        <v>3264000000</v>
+        <f>(Datos!$C$6*Datos!$C$2*0.9)+(Datos!$C$7*Datos!$C$3*0.9)</f>
+        <v>1599312000</v>
       </c>
       <c r="J14" s="13">
-        <f>(Datos!$C$6*Datos!$C$2*0.8)+(Datos!$C$7*Datos!$C$3*0.8)</f>
-        <v>3264000000</v>
+        <f>(Datos!$C$6*Datos!$C$2*0.9)+(Datos!$C$7*Datos!$C$3*0.9)</f>
+        <v>1599312000</v>
       </c>
       <c r="K14" s="13">
-        <f>(Datos!$C$6*Datos!$C$2*0.8)+(Datos!$C$7*Datos!$C$3*0.8)</f>
-        <v>3264000000</v>
+        <f>(Datos!$C$6*Datos!$C$2*0.9)+(Datos!$C$7*Datos!$C$3*0.9)</f>
+        <v>1599312000</v>
       </c>
       <c r="L14" s="13">
-        <f>(Datos!$C$6*Datos!$C$2*0.8)+(Datos!$C$7*Datos!$C$3*0.8)</f>
-        <v>3264000000</v>
+        <f>(Datos!$C$6*Datos!$C$2*0.9)+(Datos!$C$7*Datos!$C$3*0.9)</f>
+        <v>1599312000</v>
       </c>
       <c r="M14" s="13">
-        <f>(Datos!$C$6*Datos!$C$2*0.8)+(Datos!$C$7*Datos!$C$3*0.8)</f>
-        <v>3264000000</v>
+        <f>(Datos!$C$6*Datos!$C$2*0.9)+(Datos!$C$7*Datos!$C$3*0.9)</f>
+        <v>1599312000</v>
       </c>
       <c r="N14" s="13">
-        <f>(Datos!$C$6*Datos!$C$2*0.8)+(Datos!$C$7*Datos!$C$3*0.8)</f>
-        <v>3264000000</v>
+        <f>(Datos!$C$6*Datos!$C$2*0.9)+(Datos!$C$7*Datos!$C$3*0.9)</f>
+        <v>1599312000</v>
       </c>
       <c r="O14" s="13">
-        <f>(Datos!$C$6*Datos!$C$2*0.8)+(Datos!$C$7*Datos!$C$3*0.8)</f>
-        <v>3264000000</v>
+        <f>(Datos!$C$6*Datos!$C$2*0.9)+(Datos!$C$7*Datos!$C$3*0.9)</f>
+        <v>1599312000</v>
       </c>
       <c r="P14" s="13">
-        <f>(Datos!$C$6*Datos!$C$2*0.8)+(Datos!$C$7*Datos!$C$3*0.8)</f>
-        <v>3264000000</v>
+        <f>(Datos!$C$6*Datos!$C$2*0.9)+(Datos!$C$7*Datos!$C$3*0.9)</f>
+        <v>1599312000</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
+      <c r="B15" s="39"/>
       <c r="C15" t="s">
         <v>47</v>
       </c>
@@ -2198,136 +2210,136 @@
       </c>
       <c r="E15" s="13">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
-        <v>234600000</v>
+        <v>106696000</v>
       </c>
       <c r="F15" s="13">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
-        <v>234600000</v>
+        <v>106696000</v>
       </c>
       <c r="G15" s="13">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
-        <v>234600000</v>
+        <v>106696000</v>
       </c>
       <c r="H15" s="13">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
-        <v>234600000</v>
+        <v>106696000</v>
       </c>
       <c r="I15" s="13">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
-        <v>234600000</v>
+        <v>106696000</v>
       </c>
       <c r="J15" s="13">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
-        <v>234600000</v>
+        <v>106696000</v>
       </c>
       <c r="K15" s="13">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
-        <v>234600000</v>
+        <v>106696000</v>
       </c>
       <c r="L15" s="13">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
-        <v>234600000</v>
+        <v>106696000</v>
       </c>
       <c r="M15" s="13">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
-        <v>234600000</v>
+        <v>106696000</v>
       </c>
       <c r="N15" s="13">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
-        <v>234600000</v>
+        <v>106696000</v>
       </c>
       <c r="O15" s="13">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
-        <v>234600000</v>
+        <v>106696000</v>
       </c>
       <c r="P15" s="13">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
-        <v>234600000</v>
+        <v>106696000</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D16" s="14">
         <f>SUM(D14:D15)-SUM(D5:D12)</f>
-        <v>-2915166399.9560003</v>
+        <v>-1636126399.9559999</v>
       </c>
       <c r="E16" s="14">
         <f t="shared" ref="E16:P16" si="1">SUM(E14:E15)-SUM(E5:E11)</f>
-        <v>379332957.57433319</v>
+        <v>215385224.24100018</v>
       </c>
       <c r="F16" s="14">
         <f t="shared" si="1"/>
-        <v>374032655.02895832</v>
+        <v>212410448.96835279</v>
       </c>
       <c r="G16" s="14">
         <f t="shared" si="1"/>
-        <v>368571576.63970757</v>
+        <v>209345438.84576845</v>
       </c>
       <c r="H16" s="14">
         <f t="shared" si="1"/>
-        <v>362933978.54494572</v>
+        <v>206181357.68891907</v>
       </c>
       <c r="I16" s="14">
         <f t="shared" si="1"/>
-        <v>357099064.51686668</v>
+        <v>202906533.69157958</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" si="1"/>
-        <v>351038163.34230375</v>
+        <v>199504875.24100995</v>
       </c>
       <c r="K16" s="14">
         <f t="shared" si="1"/>
-        <v>344709572.36586428</v>
+        <v>195952976.87554026</v>
       </c>
       <c r="L16" s="14">
         <f t="shared" si="1"/>
-        <v>338048278.32094908</v>
+        <v>192214350.13885713</v>
       </c>
       <c r="M16" s="14">
         <f t="shared" si="1"/>
-        <v>330942898.00637245</v>
+        <v>188226481.61972857</v>
       </c>
       <c r="N16" s="14">
         <f t="shared" si="1"/>
-        <v>323174348.86243582</v>
+        <v>183866412.03881478</v>
       </c>
       <c r="O16" s="14">
         <f t="shared" si="1"/>
-        <v>314201674.60118914</v>
+        <v>178830531.67285919</v>
       </c>
       <c r="P16" s="14">
         <f t="shared" si="1"/>
-        <v>301879201.94907665</v>
+        <v>171914589.30361342</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:6" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="35"/>
+      <c r="C19" s="41"/>
       <c r="E19" s="10" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="F19" s="11">
         <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="27">
         <f>SUM(E14:P15)</f>
-        <v>41983200000</v>
+        <v>20472096000</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>2</v>
@@ -2335,76 +2347,76 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="27">
         <f>SUM(E5:P9)</f>
-        <v>29167158109.152</v>
+        <v>13818678109.152</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="6">
         <f>NPV(F19,E16:P16)</f>
-        <v>3096564983.1377034</v>
+        <v>1759969726.3265042</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="27">
         <f>C21-C22</f>
-        <v>12816041890.848</v>
+        <v>6653417890.8479996</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="7">
         <f>D12</f>
-        <v>2915166399.9560003</v>
+        <v>1636126399.9559999</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="27">
         <f>SUM(E10:P10)</f>
-        <v>3321197521.094995</v>
+        <v>1864009870.5219574</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="9">
         <f>F22-F23</f>
-        <v>181398583.18170309</v>
+        <v>123843326.37050438</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="27">
         <f>C23-C24</f>
-        <v>9494844369.7530041</v>
+        <v>4789408020.3260422</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F25" s="25">
         <f>IRR(D16:P16)</f>
-        <v>6.1302966724562591E-2</v>
+        <v>6.370178654323233E-2</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="29">
         <f>C25-SUM(E11:P11)</f>
-        <v>4145964369.7530041</v>
+        <v>2356739220.3260422</v>
       </c>
     </row>
   </sheetData>
@@ -2423,8 +2435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C15420-8E99-4DFA-A905-BD022E7B42F7}">
   <dimension ref="C3:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2441,7 +2453,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
@@ -2469,7 +2481,7 @@
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="17">
         <f>(Cotizaciónes!C3+Cotizaciónes!C4)*4000</f>
@@ -2478,7 +2490,7 @@
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8" s="13">
         <f>SUM(D4:D7)</f>
@@ -2490,7 +2502,7 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
@@ -2519,7 +2531,7 @@
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" s="13">
         <f>SUM(D11:D13)</f>
@@ -2531,21 +2543,21 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
         <v>56</v>
       </c>
-      <c r="E16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" t="s">
-        <v>58</v>
-      </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D17" s="16">
         <v>908526</v>
@@ -2565,7 +2577,7 @@
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D18" s="16">
         <v>908526</v>
@@ -2585,7 +2597,7 @@
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D19" s="16">
         <v>908526</v>
@@ -2605,7 +2617,7 @@
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D20" s="16">
         <v>908526</v>
@@ -2625,7 +2637,7 @@
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="16">
         <v>908526</v>
@@ -2645,7 +2657,7 @@
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="16">
         <v>908526</v>
@@ -2665,7 +2677,7 @@
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="16">
         <v>908526</v>
@@ -2685,7 +2697,7 @@
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D24" s="17">
         <v>1400000</v>
@@ -2705,7 +2717,7 @@
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D25" s="17">
         <v>1500000</v>
@@ -2725,7 +2737,7 @@
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" s="17">
         <v>1500000</v>
@@ -2745,7 +2757,7 @@
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D27" s="17">
         <v>2000000</v>
@@ -2765,7 +2777,7 @@
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D28" s="17">
         <v>2000000</v>
@@ -2785,7 +2797,7 @@
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D29" s="17">
         <v>2000000</v>
@@ -2805,7 +2817,7 @@
     </row>
     <row r="30" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D30" s="17">
         <v>2000000</v>
@@ -2825,7 +2837,7 @@
     </row>
     <row r="31" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D31" s="17">
         <f>3000000</f>
@@ -2846,7 +2858,7 @@
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D32" s="17">
         <f>908526*3</f>
@@ -2866,12 +2878,12 @@
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
+      <c r="C33" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="14">
         <f>SUM(G17:G32)</f>
         <v>32310749.095999997</v>
@@ -2879,7 +2891,7 @@
     </row>
     <row r="35" spans="3:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="C35" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D35" s="21">
         <v>25668000</v>
@@ -2887,11 +2899,11 @@
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D37" s="14">
         <f>SUM('Flujo Opción 1'!E5:E9)</f>
-        <v>2430596509.0960002</v>
+        <v>1151556509.096</v>
       </c>
     </row>
   </sheetData>
@@ -2907,10 +2919,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6DFA2B-1446-47C8-8D87-281B32239489}">
-  <dimension ref="B1:D11"/>
+  <dimension ref="B1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2921,92 +2933,101 @@
   <sheetData>
     <row r="1" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="36">
-        <f>17000000*20/100</f>
-        <v>3400000</v>
+      <c r="C2" s="32">
+        <f>17112000*20/300</f>
+        <v>1140800</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="37">
-        <f>17000000*20/100</f>
-        <v>3400000</v>
+      <c r="C3" s="43">
+        <f>25856000*20/300</f>
+        <v>1723733.3333333333</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="33">
         <v>210</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="33">
         <v>480</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="33">
         <v>500</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="33">
         <v>700</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="38">
+      <c r="B8" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="33">
         <f>'COSTOS PRY'!D8+'COSTOS PRY'!D14+'COSTOS PRY'!D37</f>
-        <v>2915166399.9560003</v>
+        <v>1636126399.9559999</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="39">
+      <c r="B9" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="33">
+        <f>'COSTOS PRY'!D8+'COSTOS PRY'!D14</f>
+        <v>484569890.86000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="34">
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="38">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="33">
         <f>'COSTOS PRY'!D8</f>
         <v>449936600</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="40">
+    <row r="12" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="35">
         <f>'COSTOS PRY'!D14</f>
         <v>34633290.859999999</v>
       </c>
@@ -3022,214 +3043,382 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5ECDE9-0148-490F-AEEB-8B5A304A44AC}">
-  <dimension ref="B2:I17"/>
+  <dimension ref="B2:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="19.21875" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C2" s="13">
         <f>Datos!C8</f>
-        <v>2915166399.9560003</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1636126399.9559999</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="12">
-        <f>Datos!C9</f>
+        <f>Datos!C10</f>
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s">
         <v>52</v>
       </c>
-      <c r="H4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="13">
+        <f>Datos!C11</f>
+        <v>449936600</v>
+      </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" s="13">
         <f>-C2</f>
-        <v>-2915166399.9560003</v>
+        <v>-1636126399.9559999</v>
       </c>
       <c r="I5" s="13">
         <f>H5</f>
-        <v>-2915166399.9560003</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1636126399.9559999</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13">
+        <f>-C5</f>
+        <v>-449936600</v>
+      </c>
+      <c r="M5" s="13">
+        <f>L5</f>
+        <v>-449936600</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="12">
+        <f>Datos!C10</f>
+        <v>0.02</v>
+      </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" s="13">
         <f>-I5/(13-G6)</f>
-        <v>242930533.3296667</v>
+        <v>136343866.66299999</v>
       </c>
       <c r="I6" s="13">
         <f>(I5*(1+$C$3)+H6)</f>
-        <v>-2730539194.6254539</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1532505061.29212</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="13">
+        <f>-M5/(13-K6)</f>
+        <v>37494716.666666664</v>
+      </c>
+      <c r="M6" s="13">
+        <f>(M5*(1+$C$3)+L6)</f>
+        <v>-421440615.33333331</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7" s="13">
         <f>-I6/(13-G7)</f>
-        <v>248230835.87504128</v>
+        <v>139318641.93564728</v>
       </c>
       <c r="I7" s="13">
         <f t="shared" ref="I7:I16" si="0">(I6*(1+$C$3)+H7)</f>
-        <v>-2536919142.6429214</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1423836520.5823152</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" s="13">
+        <f>-M6/(13-K7)</f>
+        <v>38312783.212121211</v>
+      </c>
+      <c r="M7" s="13">
+        <f t="shared" ref="M7:M16" si="1">(M6*(1+$C$3)+L7)</f>
+        <v>-391556644.4278788</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G8">
         <v>3</v>
       </c>
       <c r="H8" s="13">
-        <f t="shared" ref="H8:H16" si="1">-I7/(13-G8)</f>
-        <v>253691914.26429215</v>
+        <f t="shared" ref="H8:H16" si="2">-I7/(13-G8)</f>
+        <v>142383652.05823153</v>
       </c>
       <c r="I8" s="13">
         <f t="shared" si="0"/>
-        <v>-2333965611.2314878</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1309929598.93573</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" s="13">
+        <f t="shared" ref="L8:L16" si="3">-M7/(13-K8)</f>
+        <v>39155664.442787878</v>
+      </c>
+      <c r="M8" s="13">
+        <f t="shared" si="1"/>
+        <v>-360232112.87364846</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9" s="13">
+        <f t="shared" si="2"/>
+        <v>145547733.2150811</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="0"/>
+        <v>-1190580457.6993637</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9" s="13">
+        <f t="shared" si="3"/>
+        <v>40025790.319294274</v>
+      </c>
+      <c r="M9" s="13">
         <f t="shared" si="1"/>
-        <v>259329512.35905421</v>
-      </c>
-      <c r="I9" s="13">
-        <f t="shared" si="0"/>
-        <v>-2121315411.0970635</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-327410964.81182718</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G10">
         <v>5</v>
       </c>
       <c r="H10" s="13">
+        <f t="shared" si="2"/>
+        <v>148822557.21242046</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="0"/>
+        <v>-1065569509.6409307</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10" s="13">
+        <f t="shared" si="3"/>
+        <v>40926370.601478398</v>
+      </c>
+      <c r="M10" s="13">
         <f t="shared" si="1"/>
-        <v>265164426.38713294</v>
-      </c>
-      <c r="I10" s="13">
-        <f t="shared" si="0"/>
-        <v>-1898577292.9318721</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-293032813.50658536</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G11">
         <v>6</v>
       </c>
       <c r="H11" s="13">
+        <f t="shared" si="2"/>
+        <v>152224215.66299009</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="0"/>
+        <v>-934656684.1707592</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
+      </c>
+      <c r="L11" s="13">
+        <f t="shared" si="3"/>
+        <v>41861830.500940762</v>
+      </c>
+      <c r="M11" s="13">
         <f t="shared" si="1"/>
-        <v>271225327.56169599</v>
-      </c>
-      <c r="I11" s="13">
-        <f t="shared" si="0"/>
-        <v>-1665323511.2288136</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-257031639.2757763</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G12">
         <v>7</v>
       </c>
       <c r="H12" s="13">
+        <f t="shared" si="2"/>
+        <v>155776114.02845988</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="0"/>
+        <v>-797573703.82571447</v>
+      </c>
+      <c r="K12">
+        <v>7</v>
+      </c>
+      <c r="L12" s="13">
+        <f t="shared" si="3"/>
+        <v>42838606.545962714</v>
+      </c>
+      <c r="M12" s="13">
         <f t="shared" si="1"/>
-        <v>277553918.53813559</v>
-      </c>
-      <c r="I12" s="13">
-        <f t="shared" si="0"/>
-        <v>-1421076062.9152544</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-219333665.51532909</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G13">
         <v>8</v>
       </c>
       <c r="H13" s="13">
+        <f t="shared" si="2"/>
+        <v>159514740.76514289</v>
+      </c>
+      <c r="I13" s="13">
+        <f t="shared" si="0"/>
+        <v>-654010437.1370858</v>
+      </c>
+      <c r="K13">
+        <v>8</v>
+      </c>
+      <c r="L13" s="13">
+        <f t="shared" si="3"/>
+        <v>43866733.103065819</v>
+      </c>
+      <c r="M13" s="13">
         <f t="shared" si="1"/>
-        <v>284215212.58305085</v>
-      </c>
-      <c r="I13" s="13">
-        <f t="shared" si="0"/>
-        <v>-1165282371.5905085</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-179853605.72256985</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G14">
         <v>9</v>
       </c>
       <c r="H14" s="13">
+        <f t="shared" si="2"/>
+        <v>163502609.28427145</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" si="0"/>
+        <v>-503588036.59555602</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+      <c r="L14" s="13">
+        <f t="shared" si="3"/>
+        <v>44963401.430642463</v>
+      </c>
+      <c r="M14" s="13">
         <f t="shared" si="1"/>
-        <v>291320592.89762712</v>
-      </c>
-      <c r="I14" s="13">
-        <f t="shared" si="0"/>
-        <v>-897267426.12469149</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-138487276.40637881</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G15">
         <v>10</v>
       </c>
       <c r="H15" s="13">
+        <f t="shared" si="2"/>
+        <v>167862678.86518535</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="0"/>
+        <v>-345797118.46228182</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15" s="13">
+        <f t="shared" si="3"/>
+        <v>46162425.468792938</v>
+      </c>
+      <c r="M15" s="13">
         <f t="shared" si="1"/>
-        <v>299089142.04156381</v>
-      </c>
-      <c r="I15" s="13">
-        <f t="shared" si="0"/>
-        <v>-616123632.60562158</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-95094596.465713441</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G16">
         <v>11</v>
       </c>
       <c r="H16" s="13">
+        <f t="shared" si="2"/>
+        <v>172898559.23114091</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" si="0"/>
+        <v>-179814501.60038656</v>
+      </c>
+      <c r="K16">
+        <v>11</v>
+      </c>
+      <c r="L16" s="13">
+        <f t="shared" si="3"/>
+        <v>47547298.232856721</v>
+      </c>
+      <c r="M16" s="13">
         <f t="shared" si="1"/>
-        <v>308061816.30281079</v>
-      </c>
-      <c r="I16" s="13">
-        <f t="shared" si="0"/>
-        <v>-320384288.95492327</v>
-      </c>
-    </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
+        <v>-49449190.162170991</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G17">
         <v>12</v>
       </c>
       <c r="H17" s="13">
         <f>-I16/(13-G17)</f>
-        <v>320384288.95492327</v>
+        <v>179814501.60038656</v>
       </c>
       <c r="I17" s="13">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>12</v>
+      </c>
+      <c r="L17" s="13">
+        <f>-M16/(13-K17)</f>
+        <v>49449190.162170991</v>
+      </c>
+      <c r="M17" s="13">
         <f>0</f>
         <v>0</v>
       </c>
@@ -3255,29 +3444,29 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3">
         <v>26250</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>30000</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" s="13">
         <f>(25000+12*811)*34*20</f>

--- a/Evaluación economica/Evaluacion Economica.xlsx
+++ b/Evaluación economica/Evaluacion Economica.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\Desktop\Unal\APM\Proyecto\APM\Evaluación economica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980382AC-3214-464F-B78D-27A579877686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FFD0D0-BDB6-4105-89FB-CDF336658D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="750" xr2:uid="{86E37AEA-507A-4C4C-95B6-664C68D3C326}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="97">
   <si>
     <t>INVERSION</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Robots</t>
   </si>
   <si>
-    <t>Sensores</t>
-  </si>
-  <si>
     <t>Studio 5000</t>
   </si>
   <si>
@@ -239,15 +236,6 @@
     <t>271120_BOLETIN SEMANAL SIPSA_442.indd (dane.gov.co)</t>
   </si>
   <si>
-    <t>Linea con maquina lavadora enceradora</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>Maquina de selección</t>
-  </si>
-  <si>
     <t>Operario/Carguero</t>
   </si>
   <si>
@@ -306,6 +294,51 @@
   </si>
   <si>
     <t>GANANCIA O COSTO OPORTUNIDAD</t>
+  </si>
+  <si>
+    <t>Maquina</t>
+  </si>
+  <si>
+    <t>Link a cotización</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Sensor color</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Volcadora</t>
+  </si>
+  <si>
+    <t>Lavadora</t>
+  </si>
+  <si>
+    <t>Secadora</t>
+  </si>
+  <si>
+    <t>Enceradora</t>
+  </si>
+  <si>
+    <t>Banda de rodillos</t>
+  </si>
+  <si>
+    <t>Banda transportadora</t>
+  </si>
+  <si>
+    <t>Clasificador</t>
+  </si>
+  <si>
+    <t>Sensor de presencia</t>
+  </si>
+  <si>
+    <t>Actuadores neumaticos</t>
   </si>
 </sst>
 </file>
@@ -607,7 +640,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -652,6 +684,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -664,7 +697,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -702,8 +735,8 @@
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
@@ -1058,7 +1091,7 @@
   <dimension ref="B4:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:F21"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1073,440 +1106,440 @@
   <sheetData>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>33</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>34</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>35</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>36</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>37</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>38</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>39</v>
-      </c>
-      <c r="P4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13">
-        <f>'COSTOS PRY'!$G$33</f>
-        <v>32310749.095999997</v>
-      </c>
-      <c r="F5" s="13">
-        <f>'COSTOS PRY'!$G$33</f>
-        <v>32310749.095999997</v>
-      </c>
-      <c r="G5" s="13">
-        <f>'COSTOS PRY'!$G$33</f>
-        <v>32310749.095999997</v>
-      </c>
-      <c r="H5" s="13">
-        <f>'COSTOS PRY'!$G$33</f>
-        <v>32310749.095999997</v>
-      </c>
-      <c r="I5" s="13">
-        <f>'COSTOS PRY'!$G$33</f>
-        <v>32310749.095999997</v>
-      </c>
-      <c r="J5" s="13">
-        <f>'COSTOS PRY'!$G$33</f>
-        <v>32310749.095999997</v>
-      </c>
-      <c r="K5" s="13">
-        <f>'COSTOS PRY'!$G$33</f>
-        <v>32310749.095999997</v>
-      </c>
-      <c r="L5" s="13">
-        <f>'COSTOS PRY'!$G$33</f>
-        <v>32310749.095999997</v>
-      </c>
-      <c r="M5" s="13">
-        <f>'COSTOS PRY'!$G$33</f>
-        <v>32310749.095999997</v>
-      </c>
-      <c r="N5" s="13">
-        <f>'COSTOS PRY'!$G$33</f>
-        <v>32310749.095999997</v>
-      </c>
-      <c r="O5" s="13">
-        <f>'COSTOS PRY'!$G$33</f>
-        <v>32310749.095999997</v>
-      </c>
-      <c r="P5" s="13">
-        <f>'COSTOS PRY'!$G$33</f>
-        <v>32310749.095999997</v>
+        <v>40</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <f>'COSTOS PRY'!$G$32</f>
+        <v>31111858.186399996</v>
+      </c>
+      <c r="F5" s="12">
+        <f>'COSTOS PRY'!$G$32</f>
+        <v>31111858.186399996</v>
+      </c>
+      <c r="G5" s="12">
+        <f>'COSTOS PRY'!$G$32</f>
+        <v>31111858.186399996</v>
+      </c>
+      <c r="H5" s="12">
+        <f>'COSTOS PRY'!$G$32</f>
+        <v>31111858.186399996</v>
+      </c>
+      <c r="I5" s="12">
+        <f>'COSTOS PRY'!$G$32</f>
+        <v>31111858.186399996</v>
+      </c>
+      <c r="J5" s="12">
+        <f>'COSTOS PRY'!$G$32</f>
+        <v>31111858.186399996</v>
+      </c>
+      <c r="K5" s="12">
+        <f>'COSTOS PRY'!$G$32</f>
+        <v>31111858.186399996</v>
+      </c>
+      <c r="L5" s="12">
+        <f>'COSTOS PRY'!$G$32</f>
+        <v>31111858.186399996</v>
+      </c>
+      <c r="M5" s="12">
+        <f>'COSTOS PRY'!$G$32</f>
+        <v>31111858.186399996</v>
+      </c>
+      <c r="N5" s="12">
+        <f>'COSTOS PRY'!$G$32</f>
+        <v>31111858.186399996</v>
+      </c>
+      <c r="O5" s="12">
+        <f>'COSTOS PRY'!$G$32</f>
+        <v>31111858.186399996</v>
+      </c>
+      <c r="P5" s="12">
+        <f>'COSTOS PRY'!$G$32</f>
+        <v>31111858.186399996</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="39"/>
       <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="13">
-        <f>'COSTOS PRY'!$D$35</f>
+        <v>41</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <f>'COSTOS PRY'!$D$34</f>
         <v>25668000</v>
       </c>
-      <c r="F6" s="13">
-        <f>'COSTOS PRY'!$D$35</f>
+      <c r="F6" s="12">
+        <f>'COSTOS PRY'!$D$34</f>
         <v>25668000</v>
       </c>
-      <c r="G6" s="13">
-        <f>'COSTOS PRY'!$D$35</f>
+      <c r="G6" s="12">
+        <f>'COSTOS PRY'!$D$34</f>
         <v>25668000</v>
       </c>
-      <c r="H6" s="13">
-        <f>'COSTOS PRY'!$D$35</f>
+      <c r="H6" s="12">
+        <f>'COSTOS PRY'!$D$34</f>
         <v>25668000</v>
       </c>
-      <c r="I6" s="13">
-        <f>'COSTOS PRY'!$D$35</f>
+      <c r="I6" s="12">
+        <f>'COSTOS PRY'!$D$34</f>
         <v>25668000</v>
       </c>
-      <c r="J6" s="13">
-        <f>'COSTOS PRY'!$D$35</f>
+      <c r="J6" s="12">
+        <f>'COSTOS PRY'!$D$34</f>
         <v>25668000</v>
       </c>
-      <c r="K6" s="13">
-        <f>'COSTOS PRY'!$D$35</f>
+      <c r="K6" s="12">
+        <f>'COSTOS PRY'!$D$34</f>
         <v>25668000</v>
       </c>
-      <c r="L6" s="13">
-        <f>'COSTOS PRY'!$D$35</f>
+      <c r="L6" s="12">
+        <f>'COSTOS PRY'!$D$34</f>
         <v>25668000</v>
       </c>
-      <c r="M6" s="13">
-        <f>'COSTOS PRY'!$D$35</f>
+      <c r="M6" s="12">
+        <f>'COSTOS PRY'!$D$34</f>
         <v>25668000</v>
       </c>
-      <c r="N6" s="13">
-        <f>'COSTOS PRY'!$D$35</f>
+      <c r="N6" s="12">
+        <f>'COSTOS PRY'!$D$34</f>
         <v>25668000</v>
       </c>
-      <c r="O6" s="13">
-        <f>'COSTOS PRY'!$D$35</f>
+      <c r="O6" s="12">
+        <f>'COSTOS PRY'!$D$34</f>
         <v>25668000</v>
       </c>
-      <c r="P6" s="13">
-        <f>'COSTOS PRY'!$D$35</f>
+      <c r="P6" s="12">
+        <f>'COSTOS PRY'!$D$34</f>
         <v>25668000</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="39"/>
       <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
-      <c r="E7" s="13">
+        <v>42</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
         <v>3000000</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>3000000</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>3000000</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <v>3000000</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <v>3000000</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <v>3000000</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="12">
         <v>3000000</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="12">
         <v>3000000</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="12">
         <v>3000000</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="12">
         <v>3000000</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="12">
         <v>3000000</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="12">
         <v>3000000</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="39"/>
       <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0</v>
-      </c>
-      <c r="E8" s="13">
+        <v>44</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
         <f>Prestamo!L6</f>
-        <v>37494716.666666664</v>
-      </c>
-      <c r="F8" s="13">
+        <v>19358088.833333332</v>
+      </c>
+      <c r="F8" s="12">
         <f>Prestamo!$L7</f>
-        <v>38312783.212121211</v>
-      </c>
-      <c r="G8" s="13">
+        <v>19780447.135151513</v>
+      </c>
+      <c r="G8" s="12">
         <f>Prestamo!$L8</f>
-        <v>39155664.442787878</v>
-      </c>
-      <c r="H8" s="13">
+        <v>20215616.972124849</v>
+      </c>
+      <c r="H8" s="12">
         <f>Prestamo!$L9</f>
-        <v>40025790.319294274</v>
-      </c>
-      <c r="I8" s="13">
+        <v>20664852.904838733</v>
+      </c>
+      <c r="I8" s="12">
         <f>Prestamo!$L10</f>
-        <v>40926370.601478398</v>
-      </c>
-      <c r="J8" s="13">
+        <v>21129812.095197607</v>
+      </c>
+      <c r="J8" s="12">
         <f>Prestamo!$L11</f>
-        <v>41861830.500940762</v>
-      </c>
-      <c r="K8" s="13">
+        <v>21612779.228802122</v>
+      </c>
+      <c r="K8" s="12">
         <f>Prestamo!$L12</f>
-        <v>42838606.545962714</v>
-      </c>
-      <c r="L8" s="13">
+        <v>22117077.410807509</v>
+      </c>
+      <c r="L8" s="12">
         <f>Prestamo!$L13</f>
-        <v>43866733.103065819</v>
-      </c>
-      <c r="M8" s="13">
+        <v>22647887.26866689</v>
+      </c>
+      <c r="M8" s="12">
         <f>Prestamo!$L14</f>
-        <v>44963401.430642463</v>
-      </c>
-      <c r="N8" s="13">
+        <v>23214084.450383563</v>
+      </c>
+      <c r="N8" s="12">
         <f>Prestamo!$L15</f>
-        <v>46162425.468792938</v>
-      </c>
-      <c r="O8" s="13">
+        <v>23833126.702393796</v>
+      </c>
+      <c r="O8" s="12">
         <f>Prestamo!$L16</f>
-        <v>47547298.232856721</v>
-      </c>
-      <c r="P8" s="13">
+        <v>24548120.503465608</v>
+      </c>
+      <c r="P8" s="12">
         <f>Prestamo!$L17</f>
-        <v>49449190.162170991</v>
+        <v>25530045.323604234</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="39"/>
       <c r="C9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="13">
+        <v>73</v>
+      </c>
+      <c r="D9" s="12">
         <f>Datos!C9</f>
-        <v>484569890.86000001</v>
-      </c>
-      <c r="E9" s="13">
-        <v>0</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13">
-        <v>0</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13">
-        <v>0</v>
-      </c>
-      <c r="J9" s="13">
-        <v>0</v>
-      </c>
-      <c r="K9" s="13">
-        <v>0</v>
-      </c>
-      <c r="L9" s="13">
-        <v>0</v>
-      </c>
-      <c r="M9" s="13">
-        <v>0</v>
-      </c>
-      <c r="N9" s="13">
-        <v>0</v>
-      </c>
-      <c r="O9" s="13">
-        <v>0</v>
-      </c>
-      <c r="P9" s="13">
+        <v>266930356.86000001</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0</v>
+      </c>
+      <c r="O9" s="12">
+        <v>0</v>
+      </c>
+      <c r="P9" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="24" t="s">
-        <v>48</v>
+      <c r="B11" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
+        <v>79</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
         <f>$I$17</f>
-        <v>165000000</v>
-      </c>
-      <c r="F11" s="13">
+        <v>120000000</v>
+      </c>
+      <c r="F11" s="12">
         <f t="shared" ref="F11:P11" si="0">$I$17</f>
-        <v>165000000</v>
-      </c>
-      <c r="G11" s="13">
-        <f t="shared" si="0"/>
-        <v>165000000</v>
-      </c>
-      <c r="H11" s="13">
-        <f t="shared" si="0"/>
-        <v>165000000</v>
-      </c>
-      <c r="I11" s="13">
-        <f t="shared" si="0"/>
-        <v>165000000</v>
-      </c>
-      <c r="J11" s="13">
-        <f t="shared" si="0"/>
-        <v>165000000</v>
-      </c>
-      <c r="K11" s="13">
-        <f t="shared" si="0"/>
-        <v>165000000</v>
-      </c>
-      <c r="L11" s="13">
-        <f t="shared" si="0"/>
-        <v>165000000</v>
-      </c>
-      <c r="M11" s="13">
-        <f t="shared" si="0"/>
-        <v>165000000</v>
-      </c>
-      <c r="N11" s="13">
-        <f t="shared" si="0"/>
-        <v>165000000</v>
-      </c>
-      <c r="O11" s="13">
-        <f t="shared" si="0"/>
-        <v>165000000</v>
-      </c>
-      <c r="P11" s="13">
-        <f t="shared" si="0"/>
-        <v>165000000</v>
+        <v>120000000</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="0"/>
+        <v>120000000</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="0"/>
+        <v>120000000</v>
+      </c>
+      <c r="I11" s="12">
+        <f t="shared" si="0"/>
+        <v>120000000</v>
+      </c>
+      <c r="J11" s="12">
+        <f t="shared" si="0"/>
+        <v>120000000</v>
+      </c>
+      <c r="K11" s="12">
+        <f t="shared" si="0"/>
+        <v>120000000</v>
+      </c>
+      <c r="L11" s="12">
+        <f t="shared" si="0"/>
+        <v>120000000</v>
+      </c>
+      <c r="M11" s="12">
+        <f t="shared" si="0"/>
+        <v>120000000</v>
+      </c>
+      <c r="N11" s="12">
+        <f t="shared" si="0"/>
+        <v>120000000</v>
+      </c>
+      <c r="O11" s="12">
+        <f t="shared" si="0"/>
+        <v>120000000</v>
+      </c>
+      <c r="P11" s="12">
+        <f t="shared" si="0"/>
+        <v>120000000</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="14">
+        <v>69</v>
+      </c>
+      <c r="D12" s="13">
         <f>SUM(D11:D11)-SUM(D5:D9)</f>
-        <v>-484569890.86000001</v>
-      </c>
-      <c r="E12" s="14">
+        <v>-266930356.86000001</v>
+      </c>
+      <c r="E12" s="13">
         <f t="shared" ref="E12:P12" si="1">SUM(E11:E11)-SUM(E5:E8)</f>
-        <v>66526534.237333328</v>
-      </c>
-      <c r="F12" s="14">
+        <v>40862052.980266675</v>
+      </c>
+      <c r="F12" s="13">
         <f t="shared" si="1"/>
-        <v>65708467.691878796</v>
-      </c>
-      <c r="G12" s="14">
+        <v>40439694.678448498</v>
+      </c>
+      <c r="G12" s="13">
         <f t="shared" si="1"/>
-        <v>64865586.461212128</v>
-      </c>
-      <c r="H12" s="14">
+        <v>40004524.841475159</v>
+      </c>
+      <c r="H12" s="13">
         <f t="shared" si="1"/>
-        <v>63995460.584705725</v>
-      </c>
-      <c r="I12" s="14">
+        <v>39555288.908761263</v>
+      </c>
+      <c r="I12" s="13">
         <f t="shared" si="1"/>
-        <v>63094880.302521601</v>
-      </c>
-      <c r="J12" s="14">
+        <v>39090329.718402401</v>
+      </c>
+      <c r="J12" s="13">
         <f t="shared" si="1"/>
-        <v>62159420.403059244</v>
-      </c>
-      <c r="K12" s="14">
+        <v>38607362.584797889</v>
+      </c>
+      <c r="K12" s="13">
         <f t="shared" si="1"/>
-        <v>61182644.358037293</v>
-      </c>
-      <c r="L12" s="14">
+        <v>38103064.402792498</v>
+      </c>
+      <c r="L12" s="13">
         <f t="shared" si="1"/>
-        <v>60154517.800934181</v>
-      </c>
-      <c r="M12" s="14">
+        <v>37572254.54493311</v>
+      </c>
+      <c r="M12" s="13">
         <f t="shared" si="1"/>
-        <v>59057849.473357528</v>
-      </c>
-      <c r="N12" s="14">
+        <v>37006057.363216445</v>
+      </c>
+      <c r="N12" s="13">
         <f t="shared" si="1"/>
-        <v>57858825.435207069</v>
-      </c>
-      <c r="O12" s="14">
+        <v>36387015.111206204</v>
+      </c>
+      <c r="O12" s="13">
         <f t="shared" si="1"/>
-        <v>56473952.671143278</v>
-      </c>
-      <c r="P12" s="14">
+        <v>35672021.310134396</v>
+      </c>
+      <c r="P12" s="13">
         <f t="shared" si="1"/>
-        <v>54572060.741829008</v>
+        <v>34690096.489995778</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1523,101 +1556,101 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
       <c r="E16" s="2"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="26">
         <f>SUM(E11:P11)</f>
-        <v>1980000000</v>
+        <v>1440000000</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="4"/>
       <c r="H17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" s="13">
-        <v>165000000</v>
+        <v>74</v>
+      </c>
+      <c r="I17" s="12">
+        <v>120000000</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="26">
         <f>SUM(E5:P7)</f>
-        <v>731744989.15199995</v>
+        <v>717358298.23679996</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="6">
         <f>NPV(F15,E12:P12)</f>
-        <v>548654224.2335633</v>
+        <v>341009445.90478003</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="26">
         <f>C17-C18</f>
-        <v>1248255010.848</v>
+        <v>722641701.76320004</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F19" s="7">
         <f>D9</f>
-        <v>484569890.86000001</v>
+        <v>266930356.86000001</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="26">
         <f>SUM(E8:P8)</f>
-        <v>512604810.68678093</v>
+        <v>264651938.8287698</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="9">
         <f>F18-F19</f>
-        <v>64084333.37356329</v>
+        <v>74079089.044780016</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="26">
         <f>C19-C20</f>
-        <v>735650200.16121912</v>
+        <v>457989762.93443024</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="24">
         <f>IRR(D12:P12)</f>
-        <v>7.3543200332999881E-2</v>
+        <v>9.7741392876508293E-2</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="28">
         <f>C21-(C21*0.19)</f>
-        <v>595876662.13058746</v>
+        <v>370971707.97688848</v>
       </c>
     </row>
   </sheetData>
@@ -1634,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61104E06-930F-4524-B246-04747DB2E922}">
   <dimension ref="B4:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:F25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1650,259 +1683,259 @@
   <sheetData>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>33</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>34</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>35</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>36</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>37</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>38</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>39</v>
-      </c>
-      <c r="P4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13">
-        <f>'COSTOS PRY'!$G$33</f>
-        <v>32310749.095999997</v>
-      </c>
-      <c r="F5" s="13">
-        <f>'COSTOS PRY'!$G$33</f>
-        <v>32310749.095999997</v>
-      </c>
-      <c r="G5" s="13">
-        <f>'COSTOS PRY'!$G$33</f>
-        <v>32310749.095999997</v>
-      </c>
-      <c r="H5" s="13">
-        <f>'COSTOS PRY'!$G$33</f>
-        <v>32310749.095999997</v>
-      </c>
-      <c r="I5" s="13">
-        <f>'COSTOS PRY'!$G$33</f>
-        <v>32310749.095999997</v>
-      </c>
-      <c r="J5" s="13">
-        <f>'COSTOS PRY'!$G$33</f>
-        <v>32310749.095999997</v>
-      </c>
-      <c r="K5" s="13">
-        <f>'COSTOS PRY'!$G$33</f>
-        <v>32310749.095999997</v>
-      </c>
-      <c r="L5" s="13">
-        <f>'COSTOS PRY'!$G$33</f>
-        <v>32310749.095999997</v>
-      </c>
-      <c r="M5" s="13">
-        <f>'COSTOS PRY'!$G$33</f>
-        <v>32310749.095999997</v>
-      </c>
-      <c r="N5" s="13">
-        <f>'COSTOS PRY'!$G$33</f>
-        <v>32310749.095999997</v>
-      </c>
-      <c r="O5" s="13">
-        <f>'COSTOS PRY'!$G$33</f>
-        <v>32310749.095999997</v>
-      </c>
-      <c r="P5" s="13">
-        <f>'COSTOS PRY'!$G$33</f>
-        <v>32310749.095999997</v>
+        <v>40</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <f>'COSTOS PRY'!$G$32</f>
+        <v>31111858.186399996</v>
+      </c>
+      <c r="F5" s="12">
+        <f>'COSTOS PRY'!$G$32</f>
+        <v>31111858.186399996</v>
+      </c>
+      <c r="G5" s="12">
+        <f>'COSTOS PRY'!$G$32</f>
+        <v>31111858.186399996</v>
+      </c>
+      <c r="H5" s="12">
+        <f>'COSTOS PRY'!$G$32</f>
+        <v>31111858.186399996</v>
+      </c>
+      <c r="I5" s="12">
+        <f>'COSTOS PRY'!$G$32</f>
+        <v>31111858.186399996</v>
+      </c>
+      <c r="J5" s="12">
+        <f>'COSTOS PRY'!$G$32</f>
+        <v>31111858.186399996</v>
+      </c>
+      <c r="K5" s="12">
+        <f>'COSTOS PRY'!$G$32</f>
+        <v>31111858.186399996</v>
+      </c>
+      <c r="L5" s="12">
+        <f>'COSTOS PRY'!$G$32</f>
+        <v>31111858.186399996</v>
+      </c>
+      <c r="M5" s="12">
+        <f>'COSTOS PRY'!$G$32</f>
+        <v>31111858.186399996</v>
+      </c>
+      <c r="N5" s="12">
+        <f>'COSTOS PRY'!$G$32</f>
+        <v>31111858.186399996</v>
+      </c>
+      <c r="O5" s="12">
+        <f>'COSTOS PRY'!$G$32</f>
+        <v>31111858.186399996</v>
+      </c>
+      <c r="P5" s="12">
+        <f>'COSTOS PRY'!$G$32</f>
+        <v>31111858.186399996</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="39"/>
       <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="13">
-        <f>'COSTOS PRY'!$D$35</f>
+        <v>41</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <f>'COSTOS PRY'!$D$34</f>
         <v>25668000</v>
       </c>
-      <c r="F6" s="13">
-        <f>'COSTOS PRY'!$D$35</f>
+      <c r="F6" s="12">
+        <f>'COSTOS PRY'!$D$34</f>
         <v>25668000</v>
       </c>
-      <c r="G6" s="13">
-        <f>'COSTOS PRY'!$D$35</f>
+      <c r="G6" s="12">
+        <f>'COSTOS PRY'!$D$34</f>
         <v>25668000</v>
       </c>
-      <c r="H6" s="13">
-        <f>'COSTOS PRY'!$D$35</f>
+      <c r="H6" s="12">
+        <f>'COSTOS PRY'!$D$34</f>
         <v>25668000</v>
       </c>
-      <c r="I6" s="13">
-        <f>'COSTOS PRY'!$D$35</f>
+      <c r="I6" s="12">
+        <f>'COSTOS PRY'!$D$34</f>
         <v>25668000</v>
       </c>
-      <c r="J6" s="13">
-        <f>'COSTOS PRY'!$D$35</f>
+      <c r="J6" s="12">
+        <f>'COSTOS PRY'!$D$34</f>
         <v>25668000</v>
       </c>
-      <c r="K6" s="13">
-        <f>'COSTOS PRY'!$D$35</f>
+      <c r="K6" s="12">
+        <f>'COSTOS PRY'!$D$34</f>
         <v>25668000</v>
       </c>
-      <c r="L6" s="13">
-        <f>'COSTOS PRY'!$D$35</f>
+      <c r="L6" s="12">
+        <f>'COSTOS PRY'!$D$34</f>
         <v>25668000</v>
       </c>
-      <c r="M6" s="13">
-        <f>'COSTOS PRY'!$D$35</f>
+      <c r="M6" s="12">
+        <f>'COSTOS PRY'!$D$34</f>
         <v>25668000</v>
       </c>
-      <c r="N6" s="13">
-        <f>'COSTOS PRY'!$D$35</f>
+      <c r="N6" s="12">
+        <f>'COSTOS PRY'!$D$34</f>
         <v>25668000</v>
       </c>
-      <c r="O6" s="13">
-        <f>'COSTOS PRY'!$D$35</f>
+      <c r="O6" s="12">
+        <f>'COSTOS PRY'!$D$34</f>
         <v>25668000</v>
       </c>
-      <c r="P6" s="13">
-        <f>'COSTOS PRY'!$D$35</f>
+      <c r="P6" s="12">
+        <f>'COSTOS PRY'!$D$34</f>
         <v>25668000</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="39"/>
       <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
-      <c r="E7" s="13">
+        <v>42</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
         <v>3000000</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>3000000</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>3000000</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <v>3000000</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <v>3000000</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <v>3000000</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="12">
         <v>3000000</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="12">
         <v>3000000</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="12">
         <v>3000000</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="12">
         <v>3000000</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="12">
         <v>3000000</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="12">
         <v>3000000</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="39"/>
       <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0</v>
-      </c>
-      <c r="E8" s="13">
+        <v>43</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
         <v>1066960000</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
         <v>1066960000</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
         <v>1066960000</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
         <v>1066960000</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
         <v>1066960000</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
         <v>1066960000</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="12">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
         <v>1066960000</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="12">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
         <v>1066960000</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="12">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
         <v>1066960000</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="12">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
         <v>1066960000</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="12">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
         <v>1066960000</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="12">
         <f>Datos!$C$2*Datos!$C$4+Datos!$C$3*Datos!$C$5</f>
         <v>1066960000</v>
       </c>
@@ -1910,56 +1943,56 @@
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="39"/>
       <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0</v>
-      </c>
-      <c r="E9" s="13">
+        <v>67</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
         <f>Cotizaciónes!$C$6</f>
         <v>23617760</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <f>Cotizaciónes!$C$6</f>
         <v>23617760</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <f>Cotizaciónes!$C$6</f>
         <v>23617760</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <f>Cotizaciónes!$C$6</f>
         <v>23617760</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="12">
         <f>Cotizaciónes!$C$6</f>
         <v>23617760</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="12">
         <f>Cotizaciónes!$C$6</f>
         <v>23617760</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="12">
         <f>Cotizaciónes!$C$6</f>
         <v>23617760</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="12">
         <f>Cotizaciónes!$C$6</f>
         <v>23617760</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="12">
         <f>Cotizaciónes!$C$6</f>
         <v>23617760</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="12">
         <f>Cotizaciónes!$C$6</f>
         <v>23617760</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="12">
         <f>Cotizaciónes!$C$6</f>
         <v>23617760</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="12">
         <f>Cotizaciónes!$C$6</f>
         <v>23617760</v>
       </c>
@@ -1967,113 +2000,113 @@
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="39"/>
       <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0</v>
-      </c>
-      <c r="E10" s="13">
+        <v>44</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
         <f>Prestamo!H6</f>
-        <v>136343866.66299999</v>
-      </c>
-      <c r="F10" s="13">
+        <v>118107331.25386667</v>
+      </c>
+      <c r="F10" s="12">
         <f>Prestamo!$H7</f>
-        <v>139318641.93564728</v>
-      </c>
-      <c r="G10" s="13">
+        <v>120684218.48122376</v>
+      </c>
+      <c r="G10" s="12">
         <f>Prestamo!$H8</f>
-        <v>142383652.05823153</v>
-      </c>
-      <c r="H10" s="13">
+        <v>123339271.28781068</v>
+      </c>
+      <c r="H10" s="12">
         <f>Prestamo!$H9</f>
-        <v>145547733.2150811</v>
-      </c>
-      <c r="I10" s="13">
+        <v>126080143.98309538</v>
+      </c>
+      <c r="I10" s="12">
         <f>Prestamo!$H10</f>
-        <v>148822557.21242046</v>
-      </c>
-      <c r="J10" s="13">
+        <v>128916947.22271502</v>
+      </c>
+      <c r="J10" s="12">
         <f>Prestamo!$H11</f>
-        <v>152224215.66299009</v>
-      </c>
-      <c r="K10" s="13">
+        <v>131863620.30209136</v>
+      </c>
+      <c r="K10" s="12">
         <f>Prestamo!$H12</f>
-        <v>155776114.02845988</v>
-      </c>
-      <c r="L10" s="13">
+        <v>134940438.10914016</v>
+      </c>
+      <c r="L10" s="12">
         <f>Prestamo!$H13</f>
-        <v>159514740.76514289</v>
-      </c>
-      <c r="M10" s="13">
+        <v>138179008.62375954</v>
+      </c>
+      <c r="M10" s="12">
         <f>Prestamo!$H14</f>
-        <v>163502609.28427145</v>
-      </c>
-      <c r="N10" s="13">
+        <v>141633483.83935353</v>
+      </c>
+      <c r="N10" s="12">
         <f>Prestamo!$H15</f>
-        <v>167862678.86518535</v>
-      </c>
-      <c r="O10" s="13">
+        <v>145410376.74173629</v>
+      </c>
+      <c r="O10" s="12">
         <f>Prestamo!$H16</f>
-        <v>172898559.23114091</v>
-      </c>
-      <c r="P10" s="13">
+        <v>149772688.04398838</v>
+      </c>
+      <c r="P10" s="12">
         <f>Prestamo!$H17</f>
-        <v>179814501.60038656</v>
+        <v>155763595.56574795</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="39"/>
       <c r="C11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
+        <v>70</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
         <f>E8*0.19</f>
         <v>202722400</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <f t="shared" ref="F11:P11" si="0">F8*0.19</f>
         <v>202722400</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <f t="shared" si="0"/>
         <v>202722400</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <f t="shared" si="0"/>
         <v>202722400</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
         <f t="shared" si="0"/>
         <v>202722400</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
         <f t="shared" si="0"/>
         <v>202722400</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="12">
         <f t="shared" si="0"/>
         <v>202722400</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="12">
         <f t="shared" si="0"/>
         <v>202722400</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="12">
         <f t="shared" si="0"/>
         <v>202722400</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="12">
         <f t="shared" si="0"/>
         <v>202722400</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="12">
         <f t="shared" si="0"/>
         <v>202722400</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="12">
         <f t="shared" si="0"/>
         <v>202722400</v>
       </c>
@@ -2081,121 +2114,121 @@
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="39"/>
       <c r="C12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="13">
+        <v>73</v>
+      </c>
+      <c r="D12" s="12">
         <f>Datos!C8</f>
-        <v>1636126399.9559999</v>
-      </c>
-      <c r="E12" s="13">
-        <v>0</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
-      <c r="I12" s="13">
-        <v>0</v>
-      </c>
-      <c r="J12" s="13">
-        <v>0</v>
-      </c>
-      <c r="K12" s="13">
-        <v>0</v>
-      </c>
-      <c r="L12" s="13">
-        <v>0</v>
-      </c>
-      <c r="M12" s="13">
-        <v>0</v>
-      </c>
-      <c r="N12" s="13">
-        <v>0</v>
-      </c>
-      <c r="O12" s="13">
-        <v>0</v>
-      </c>
-      <c r="P12" s="13">
+        <v>1417287975.0464001</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
         <v>48</v>
       </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0</v>
-      </c>
-      <c r="E14" s="13">
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
         <f>(Datos!$C$6*Datos!$C$2*0.9)+(Datos!$C$7*Datos!$C$3*0.9)</f>
         <v>1599312000</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <f>(Datos!$C$6*Datos!$C$2*0.9)+(Datos!$C$7*Datos!$C$3*0.9)</f>
         <v>1599312000</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <f>(Datos!$C$6*Datos!$C$2*0.9)+(Datos!$C$7*Datos!$C$3*0.9)</f>
         <v>1599312000</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <f>(Datos!$C$6*Datos!$C$2*0.9)+(Datos!$C$7*Datos!$C$3*0.9)</f>
         <v>1599312000</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="12">
         <f>(Datos!$C$6*Datos!$C$2*0.9)+(Datos!$C$7*Datos!$C$3*0.9)</f>
         <v>1599312000</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="12">
         <f>(Datos!$C$6*Datos!$C$2*0.9)+(Datos!$C$7*Datos!$C$3*0.9)</f>
         <v>1599312000</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="12">
         <f>(Datos!$C$6*Datos!$C$2*0.9)+(Datos!$C$7*Datos!$C$3*0.9)</f>
         <v>1599312000</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="12">
         <f>(Datos!$C$6*Datos!$C$2*0.9)+(Datos!$C$7*Datos!$C$3*0.9)</f>
         <v>1599312000</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="12">
         <f>(Datos!$C$6*Datos!$C$2*0.9)+(Datos!$C$7*Datos!$C$3*0.9)</f>
         <v>1599312000</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="12">
         <f>(Datos!$C$6*Datos!$C$2*0.9)+(Datos!$C$7*Datos!$C$3*0.9)</f>
         <v>1599312000</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="12">
         <f>(Datos!$C$6*Datos!$C$2*0.9)+(Datos!$C$7*Datos!$C$3*0.9)</f>
         <v>1599312000</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="12">
         <f>(Datos!$C$6*Datos!$C$2*0.9)+(Datos!$C$7*Datos!$C$3*0.9)</f>
         <v>1599312000</v>
       </c>
@@ -2203,115 +2236,115 @@
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="39"/>
       <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0</v>
-      </c>
-      <c r="E15" s="13">
+        <v>46</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
         <v>106696000</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
         <v>106696000</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="12">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
         <v>106696000</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="12">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
         <v>106696000</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="12">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
         <v>106696000</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="12">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
         <v>106696000</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="12">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
         <v>106696000</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="12">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
         <v>106696000</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="12">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
         <v>106696000</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="12">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
         <v>106696000</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="12">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
         <v>106696000</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="12">
         <f>(Datos!$C$4*Datos!$C$2*0.1)+(Datos!$C$5*Datos!$C$3*0.1)</f>
         <v>106696000</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="14">
+        <v>69</v>
+      </c>
+      <c r="D16" s="13">
         <f>SUM(D14:D15)-SUM(D5:D12)</f>
-        <v>-1636126399.9559999</v>
-      </c>
-      <c r="E16" s="14">
+        <v>-1417287975.0464001</v>
+      </c>
+      <c r="E16" s="13">
         <f t="shared" ref="E16:P16" si="1">SUM(E14:E15)-SUM(E5:E11)</f>
-        <v>215385224.24100018</v>
-      </c>
-      <c r="F16" s="14">
+        <v>234820650.55973339</v>
+      </c>
+      <c r="F16" s="13">
         <f t="shared" si="1"/>
-        <v>212410448.96835279</v>
-      </c>
-      <c r="G16" s="14">
+        <v>232243763.33237624</v>
+      </c>
+      <c r="G16" s="13">
         <f t="shared" si="1"/>
-        <v>209345438.84576845</v>
-      </c>
-      <c r="H16" s="14">
+        <v>229588710.52578926</v>
+      </c>
+      <c r="H16" s="13">
         <f t="shared" si="1"/>
-        <v>206181357.68891907</v>
-      </c>
-      <c r="I16" s="14">
+        <v>226847837.83050466</v>
+      </c>
+      <c r="I16" s="13">
         <f t="shared" si="1"/>
-        <v>202906533.69157958</v>
-      </c>
-      <c r="J16" s="14">
+        <v>224011034.59088516</v>
+      </c>
+      <c r="J16" s="13">
         <f t="shared" si="1"/>
-        <v>199504875.24100995</v>
-      </c>
-      <c r="K16" s="14">
+        <v>221064361.5115087</v>
+      </c>
+      <c r="K16" s="13">
         <f t="shared" si="1"/>
-        <v>195952976.87554026</v>
-      </c>
-      <c r="L16" s="14">
+        <v>217987543.70445991</v>
+      </c>
+      <c r="L16" s="13">
         <f t="shared" si="1"/>
-        <v>192214350.13885713</v>
-      </c>
-      <c r="M16" s="14">
+        <v>214748973.18984056</v>
+      </c>
+      <c r="M16" s="13">
         <f t="shared" si="1"/>
-        <v>188226481.61972857</v>
-      </c>
-      <c r="N16" s="14">
+        <v>211294497.9742465</v>
+      </c>
+      <c r="N16" s="13">
         <f t="shared" si="1"/>
-        <v>183866412.03881478</v>
-      </c>
-      <c r="O16" s="14">
+        <v>207517605.07186365</v>
+      </c>
+      <c r="O16" s="13">
         <f t="shared" si="1"/>
-        <v>178830531.67285919</v>
-      </c>
-      <c r="P16" s="14">
+        <v>203155293.7696116</v>
+      </c>
+      <c r="P16" s="13">
         <f t="shared" si="1"/>
-        <v>171914589.30361342</v>
+        <v>197164386.24785209</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2321,23 +2354,23 @@
       </c>
       <c r="C19" s="41"/>
       <c r="E19" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F19" s="11">
         <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="26">
         <f>SUM(E14:P15)</f>
         <v>20472096000</v>
       </c>
@@ -2347,76 +2380,76 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="26">
         <f>SUM(E5:P9)</f>
-        <v>13818678109.152</v>
+        <v>13804291418.236801</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="6">
         <f>NPV(F19,E16:P16)</f>
-        <v>1759969726.3265042</v>
+        <v>1952165991.1619432</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="26">
         <f>C21-C22</f>
-        <v>6653417890.8479996</v>
+        <v>6667804581.7631989</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="7">
         <f>D12</f>
-        <v>1636126399.9559999</v>
+        <v>1417287975.0464001</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="26">
         <f>SUM(E10:P10)</f>
-        <v>1864009870.5219574</v>
+        <v>1614691123.4545288</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="9">
         <f>F22-F23</f>
-        <v>123843326.37050438</v>
+        <v>534878016.11554313</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="26">
         <f>C23-C24</f>
-        <v>4789408020.3260422</v>
+        <v>5053113458.30867</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="24">
         <f>IRR(D16:P16)</f>
-        <v>6.370178654323233E-2</v>
+        <v>0.11393550139415032</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="28">
         <f>C25-SUM(E11:P11)</f>
-        <v>2356739220.3260422</v>
+        <v>2620444658.30867</v>
       </c>
     </row>
   </sheetData>
@@ -2433,10 +2466,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C15420-8E99-4DFA-A905-BD022E7B42F7}">
-  <dimension ref="C3:G37"/>
+  <dimension ref="C2:P36"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2444,471 +2477,566 @@
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.21875" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
     <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>12000000</v>
+      </c>
+      <c r="K3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>21000000</v>
       </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>8100000</v>
+      </c>
+      <c r="K4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="13">
-        <f>145669000*1.4</f>
-        <v>203936600</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="12">
+        <f>30000*3956</f>
+        <v>118680000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="19"/>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D6" s="16">
+        <f>SUMPRODUCT(G3:G10,H3:H10)</f>
+        <v>92617066</v>
+      </c>
+      <c r="F6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>6200000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="17">
-        <f>(Cotizaciónes!C3+Cotizaciónes!C4)*4000</f>
-        <v>225000000</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="13">
-        <f>SUM(D4:D7)</f>
-        <v>449936600</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="12">
+        <f>SUM(D4:D6)</f>
+        <v>232297066</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5500000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>5800000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>13500000</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <f>53.47*3900</f>
+        <v>208533</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="14">
+        <v>8376290.8600000003</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="15">
-        <v>8376290.8600000003</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="D12" s="12">
+        <v>22320000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="13">
-        <v>22320000</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <v>3937000</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="13">
+        <v>58</v>
+      </c>
+      <c r="D14" s="12">
         <f>SUM(D11:D13)</f>
         <v>34633290.859999999</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
         <v>54</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>55</v>
       </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="16">
+      <c r="C17" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="15">
         <v>908526</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <f>D17*0.0696</f>
         <v>63233.409599999999</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <f>D17*0.25</f>
         <v>227131.5</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <f>SUM(D17:F17)</f>
         <v>1198890.9095999999</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="16">
+      <c r="C18" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="15">
         <v>908526</v>
       </c>
-      <c r="E18" s="13">
-        <f t="shared" ref="E18:E32" si="0">D18*0.0696</f>
+      <c r="E18" s="12">
+        <f t="shared" ref="E18:E31" si="0">D18*0.0696</f>
         <v>63233.409599999999</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <f t="shared" ref="F18" si="1">D18*0.25</f>
         <v>227131.5</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <f t="shared" ref="G18" si="2">SUM(D18:F18)</f>
         <v>1198890.9095999999</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="16">
+      <c r="C19" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="15">
         <v>908526</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <f>D19*0.0696</f>
         <v>63233.409599999999</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <f>D19*0.25</f>
         <v>227131.5</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="12">
         <f>SUM(D19:F19)</f>
         <v>1198890.9095999999</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="16">
+      <c r="C20" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="15">
         <v>908526</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <f t="shared" si="0"/>
         <v>63233.409599999999</v>
       </c>
-      <c r="F20" s="13">
-        <f t="shared" ref="F20:F32" si="3">D20*0.25</f>
+      <c r="F20" s="12">
+        <f t="shared" ref="F20:F31" si="3">D20*0.25</f>
         <v>227131.5</v>
       </c>
-      <c r="G20" s="13">
-        <f t="shared" ref="G20:G32" si="4">SUM(D20:F20)</f>
+      <c r="G20" s="12">
+        <f t="shared" ref="G20:G31" si="4">SUM(D20:F20)</f>
         <v>1198890.9095999999</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="16">
+      <c r="C21" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="15">
         <v>908526</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <f t="shared" si="0"/>
         <v>63233.409599999999</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <f t="shared" si="3"/>
         <v>227131.5</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="12">
         <f t="shared" si="4"/>
         <v>1198890.9095999999</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="16">
+      <c r="C22" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="15">
         <v>908526</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <f t="shared" si="0"/>
         <v>63233.409599999999</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <f t="shared" si="3"/>
         <v>227131.5</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="12">
         <f t="shared" si="4"/>
         <v>1198890.9095999999</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="20" t="s">
-        <v>66</v>
+      <c r="C23" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="D23" s="16">
-        <v>908526</v>
-      </c>
-      <c r="E23" s="13">
-        <f t="shared" si="0"/>
-        <v>63233.409599999999</v>
-      </c>
-      <c r="F23" s="13">
-        <f t="shared" si="3"/>
-        <v>227131.5</v>
-      </c>
-      <c r="G23" s="13">
-        <f t="shared" si="4"/>
-        <v>1198890.9095999999</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="17">
         <v>1400000</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E23" s="12">
         <f t="shared" si="0"/>
         <v>97440</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F23" s="12">
         <f t="shared" si="3"/>
         <v>350000</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G23" s="12">
         <f t="shared" si="4"/>
         <v>1847440</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="17">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="16">
         <v>1500000</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E24" s="12">
         <f t="shared" si="0"/>
         <v>104400</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F24" s="12">
         <f t="shared" si="3"/>
         <v>375000</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G24" s="12">
         <f t="shared" si="4"/>
         <v>1979400</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="17">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="16">
         <v>1500000</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E25" s="12">
         <f t="shared" si="0"/>
         <v>104400</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F25" s="12">
         <f t="shared" si="3"/>
         <v>375000</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G25" s="12">
         <f t="shared" si="4"/>
         <v>1979400</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="17">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="16">
         <v>2000000</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E26" s="12">
         <f t="shared" si="0"/>
         <v>139200</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F26" s="12">
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G26" s="12">
         <f t="shared" si="4"/>
         <v>2639200</v>
       </c>
     </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="16">
+        <v>2000000</v>
+      </c>
+      <c r="E27" s="12">
+        <f t="shared" ref="E27:E28" si="5">D27*0.0696</f>
+        <v>139200</v>
+      </c>
+      <c r="F27" s="12">
+        <f t="shared" ref="F27:F28" si="6">D27*0.25</f>
+        <v>500000</v>
+      </c>
+      <c r="G27" s="12">
+        <f t="shared" ref="G27:G28" si="7">SUM(D27:F27)</f>
+        <v>2639200</v>
+      </c>
+    </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="17">
+      <c r="C28" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="16">
         <v>2000000</v>
       </c>
-      <c r="E28" s="13">
-        <f t="shared" ref="E28:E29" si="5">D28*0.0696</f>
-        <v>139200</v>
-      </c>
-      <c r="F28" s="13">
-        <f t="shared" ref="F28:F29" si="6">D28*0.25</f>
-        <v>500000</v>
-      </c>
-      <c r="G28" s="13">
-        <f t="shared" ref="G28:G29" si="7">SUM(D28:F28)</f>
-        <v>2639200</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="17">
-        <v>2000000</v>
-      </c>
-      <c r="E29" s="13">
+      <c r="E28" s="12">
         <f t="shared" si="5"/>
         <v>139200</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F28" s="12">
         <f t="shared" si="6"/>
         <v>500000</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G28" s="12">
         <f t="shared" si="7"/>
         <v>2639200</v>
       </c>
     </row>
-    <row r="30" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="17">
+    <row r="29" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="16">
         <v>2000000</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E29" s="12">
         <f t="shared" si="0"/>
         <v>139200</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F29" s="12">
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G29" s="12">
         <f t="shared" si="4"/>
         <v>2639200</v>
       </c>
     </row>
-    <row r="31" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="17">
+    <row r="30" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="16">
         <f>3000000</f>
         <v>3000000</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E30" s="12">
         <f t="shared" si="0"/>
         <v>208800</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F30" s="12">
         <f t="shared" si="3"/>
         <v>750000</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G30" s="12">
         <f t="shared" si="4"/>
         <v>3958800</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="17">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="16">
         <f>908526*3</f>
         <v>2725578</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E31" s="12">
         <f t="shared" si="0"/>
         <v>189700.22879999998</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F31" s="12">
         <f t="shared" si="3"/>
         <v>681394.5</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G31" s="12">
         <f t="shared" si="4"/>
         <v>3596672.7288000002</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="14">
-        <f>SUM(G17:G32)</f>
-        <v>32310749.095999997</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="C35" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="21">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="13">
+        <f>SUM(G17:G31)</f>
+        <v>31111858.186399996</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C34" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="20">
         <v>25668000</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="14">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="13">
         <f>SUM('Flujo Opción 1'!E5:E9)</f>
-        <v>1151556509.096</v>
+        <v>1150357618.1863999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C32:F32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2922,7 +3050,7 @@
   <dimension ref="B1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2933,101 +3061,101 @@
   <sheetData>
     <row r="1" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="32">
+      <c r="B2" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="31">
         <f>17112000*20/300</f>
         <v>1140800</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="43">
+      <c r="B3" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="38">
         <f>25856000*20/300</f>
         <v>1723733.3333333333</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="32">
+        <v>210</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="33">
-        <v>210</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="37" t="s">
+      <c r="C5" s="32">
+        <v>480</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="33">
-        <v>480</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="37" t="s">
+      <c r="C6" s="32">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="33">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="33">
+      <c r="C7" s="32">
         <v>700</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="33">
-        <f>'COSTOS PRY'!D8+'COSTOS PRY'!D14+'COSTOS PRY'!D37</f>
-        <v>1636126399.9559999</v>
+      <c r="B8" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="32">
+        <f>'COSTOS PRY'!D7+'COSTOS PRY'!D14+'COSTOS PRY'!D36</f>
+        <v>1417287975.0464001</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="33">
-        <f>'COSTOS PRY'!D8+'COSTOS PRY'!D14</f>
-        <v>484569890.86000001</v>
+      <c r="B9" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="32">
+        <f>'COSTOS PRY'!D7+'COSTOS PRY'!D14</f>
+        <v>266930356.86000001</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="34">
+      <c r="B10" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="33">
         <v>0.02</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="32">
+        <f>'COSTOS PRY'!D7</f>
+        <v>232297066</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="33">
-        <f>'COSTOS PRY'!D8</f>
-        <v>449936600</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="35">
+      <c r="C12" s="34">
         <f>'COSTOS PRY'!D14</f>
         <v>34633290.859999999</v>
       </c>
@@ -3046,7 +3174,7 @@
   <dimension ref="B2:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3061,364 +3189,364 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="13">
+        <v>77</v>
+      </c>
+      <c r="C2" s="12">
         <f>Datos!C8</f>
-        <v>1636126399.9559999</v>
+        <v>1417287975.0464001</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="12">
+        <v>52</v>
+      </c>
+      <c r="C3" s="43">
         <f>Datos!C10</f>
         <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
         <v>50</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>51</v>
       </c>
-      <c r="I4" t="s">
-        <v>52</v>
-      </c>
       <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
         <v>50</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>51</v>
-      </c>
-      <c r="M4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="13">
+        <v>80</v>
+      </c>
+      <c r="C5" s="12">
         <f>Datos!C11</f>
-        <v>449936600</v>
+        <v>232297066</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <f>-C2</f>
-        <v>-1636126399.9559999</v>
-      </c>
-      <c r="I5" s="13">
+        <v>-1417287975.0464001</v>
+      </c>
+      <c r="I5" s="12">
         <f>H5</f>
-        <v>-1636126399.9559999</v>
+        <v>-1417287975.0464001</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="12">
         <f>-C5</f>
-        <v>-449936600</v>
-      </c>
-      <c r="M5" s="13">
+        <v>-232297066</v>
+      </c>
+      <c r="M5" s="12">
         <f>L5</f>
-        <v>-449936600</v>
+        <v>-232297066</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="12">
+        <v>52</v>
+      </c>
+      <c r="C6" s="43">
         <f>Datos!C10</f>
         <v>0.02</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <f>-I5/(13-G6)</f>
-        <v>136343866.66299999</v>
-      </c>
-      <c r="I6" s="13">
+        <v>118107331.25386667</v>
+      </c>
+      <c r="I6" s="12">
         <f>(I5*(1+$C$3)+H6)</f>
-        <v>-1532505061.29212</v>
+        <v>-1327526403.2934613</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="12">
         <f>-M5/(13-K6)</f>
-        <v>37494716.666666664</v>
-      </c>
-      <c r="M6" s="13">
+        <v>19358088.833333332</v>
+      </c>
+      <c r="M6" s="12">
         <f>(M5*(1+$C$3)+L6)</f>
-        <v>-421440615.33333331</v>
+        <v>-217584918.48666665</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G7">
         <v>2</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <f>-I6/(13-G7)</f>
-        <v>139318641.93564728</v>
-      </c>
-      <c r="I7" s="13">
+        <v>120684218.48122376</v>
+      </c>
+      <c r="I7" s="12">
         <f t="shared" ref="I7:I16" si="0">(I6*(1+$C$3)+H7)</f>
-        <v>-1423836520.5823152</v>
+        <v>-1233392712.8781068</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="12">
         <f>-M6/(13-K7)</f>
-        <v>38312783.212121211</v>
-      </c>
-      <c r="M7" s="13">
+        <v>19780447.135151513</v>
+      </c>
+      <c r="M7" s="12">
         <f t="shared" ref="M7:M16" si="1">(M6*(1+$C$3)+L7)</f>
-        <v>-391556644.4278788</v>
+        <v>-202156169.72124848</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G8">
         <v>3</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <f t="shared" ref="H8:H16" si="2">-I7/(13-G8)</f>
-        <v>142383652.05823153</v>
-      </c>
-      <c r="I8" s="13">
-        <f t="shared" si="0"/>
-        <v>-1309929598.93573</v>
+        <v>123339271.28781068</v>
+      </c>
+      <c r="I8" s="12">
+        <f t="shared" si="0"/>
+        <v>-1134721295.8478584</v>
       </c>
       <c r="K8">
         <v>3</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="12">
         <f t="shared" ref="L8:L16" si="3">-M7/(13-K8)</f>
-        <v>39155664.442787878</v>
-      </c>
-      <c r="M8" s="13">
+        <v>20215616.972124849</v>
+      </c>
+      <c r="M8" s="12">
         <f t="shared" si="1"/>
-        <v>-360232112.87364846</v>
+        <v>-185983676.14354861</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G9">
         <v>4</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <f t="shared" si="2"/>
-        <v>145547733.2150811</v>
-      </c>
-      <c r="I9" s="13">
-        <f t="shared" si="0"/>
-        <v>-1190580457.6993637</v>
+        <v>126080143.98309538</v>
+      </c>
+      <c r="I9" s="12">
+        <f t="shared" si="0"/>
+        <v>-1031335577.7817202</v>
       </c>
       <c r="K9">
         <v>4</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="12">
         <f t="shared" si="3"/>
-        <v>40025790.319294274</v>
-      </c>
-      <c r="M9" s="13">
+        <v>20664852.904838733</v>
+      </c>
+      <c r="M9" s="12">
         <f t="shared" si="1"/>
-        <v>-327410964.81182718</v>
+        <v>-169038496.76158085</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G10">
         <v>5</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <f t="shared" si="2"/>
-        <v>148822557.21242046</v>
-      </c>
-      <c r="I10" s="13">
-        <f t="shared" si="0"/>
-        <v>-1065569509.6409307</v>
+        <v>128916947.22271502</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" si="0"/>
+        <v>-923045342.11463952</v>
       </c>
       <c r="K10">
         <v>5</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="12">
         <f t="shared" si="3"/>
-        <v>40926370.601478398</v>
-      </c>
-      <c r="M10" s="13">
+        <v>21129812.095197607</v>
+      </c>
+      <c r="M10" s="12">
         <f t="shared" si="1"/>
-        <v>-293032813.50658536</v>
+        <v>-151289454.60161486</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G11">
         <v>6</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <f t="shared" si="2"/>
-        <v>152224215.66299009</v>
-      </c>
-      <c r="I11" s="13">
-        <f t="shared" si="0"/>
-        <v>-934656684.1707592</v>
+        <v>131863620.30209136</v>
+      </c>
+      <c r="I11" s="12">
+        <f t="shared" si="0"/>
+        <v>-809642628.65484095</v>
       </c>
       <c r="K11">
         <v>6</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="12">
         <f t="shared" si="3"/>
-        <v>41861830.500940762</v>
-      </c>
-      <c r="M11" s="13">
+        <v>21612779.228802122</v>
+      </c>
+      <c r="M11" s="12">
         <f t="shared" si="1"/>
-        <v>-257031639.2757763</v>
+        <v>-132702464.46484506</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G12">
         <v>7</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <f t="shared" si="2"/>
-        <v>155776114.02845988</v>
-      </c>
-      <c r="I12" s="13">
-        <f t="shared" si="0"/>
-        <v>-797573703.82571447</v>
+        <v>134940438.10914016</v>
+      </c>
+      <c r="I12" s="12">
+        <f t="shared" si="0"/>
+        <v>-690895043.11879766</v>
       </c>
       <c r="K12">
         <v>7</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="12">
         <f t="shared" si="3"/>
-        <v>42838606.545962714</v>
-      </c>
-      <c r="M12" s="13">
+        <v>22117077.410807509</v>
+      </c>
+      <c r="M12" s="12">
         <f t="shared" si="1"/>
-        <v>-219333665.51532909</v>
+        <v>-113239436.34333445</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G13">
         <v>8</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="12">
         <f t="shared" si="2"/>
-        <v>159514740.76514289</v>
-      </c>
-      <c r="I13" s="13">
-        <f t="shared" si="0"/>
-        <v>-654010437.1370858</v>
+        <v>138179008.62375954</v>
+      </c>
+      <c r="I13" s="12">
+        <f t="shared" si="0"/>
+        <v>-566533935.35741413</v>
       </c>
       <c r="K13">
         <v>8</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="12">
         <f t="shared" si="3"/>
-        <v>43866733.103065819</v>
-      </c>
-      <c r="M13" s="13">
+        <v>22647887.26866689</v>
+      </c>
+      <c r="M13" s="12">
         <f t="shared" si="1"/>
-        <v>-179853605.72256985</v>
+        <v>-92856337.80153425</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G14">
         <v>9</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <f t="shared" si="2"/>
-        <v>163502609.28427145</v>
-      </c>
-      <c r="I14" s="13">
-        <f t="shared" si="0"/>
-        <v>-503588036.59555602</v>
+        <v>141633483.83935353</v>
+      </c>
+      <c r="I14" s="12">
+        <f t="shared" si="0"/>
+        <v>-436231130.22520888</v>
       </c>
       <c r="K14">
         <v>9</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="12">
         <f t="shared" si="3"/>
-        <v>44963401.430642463</v>
-      </c>
-      <c r="M14" s="13">
+        <v>23214084.450383563</v>
+      </c>
+      <c r="M14" s="12">
         <f t="shared" si="1"/>
-        <v>-138487276.40637881</v>
+        <v>-71499380.107181385</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G15">
         <v>10</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="12">
         <f t="shared" si="2"/>
-        <v>167862678.86518535</v>
-      </c>
-      <c r="I15" s="13">
-        <f t="shared" si="0"/>
-        <v>-345797118.46228182</v>
+        <v>145410376.74173629</v>
+      </c>
+      <c r="I15" s="12">
+        <f t="shared" si="0"/>
+        <v>-299545376.08797675</v>
       </c>
       <c r="K15">
         <v>10</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="12">
         <f t="shared" si="3"/>
-        <v>46162425.468792938</v>
-      </c>
-      <c r="M15" s="13">
+        <v>23833126.702393796</v>
+      </c>
+      <c r="M15" s="12">
         <f t="shared" si="1"/>
-        <v>-95094596.465713441</v>
+        <v>-49096241.006931216</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G16">
         <v>11</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="12">
         <f t="shared" si="2"/>
-        <v>172898559.23114091</v>
-      </c>
-      <c r="I16" s="13">
-        <f t="shared" si="0"/>
-        <v>-179814501.60038656</v>
+        <v>149772688.04398838</v>
+      </c>
+      <c r="I16" s="12">
+        <f t="shared" si="0"/>
+        <v>-155763595.56574795</v>
       </c>
       <c r="K16">
         <v>11</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="12">
         <f t="shared" si="3"/>
-        <v>47547298.232856721</v>
-      </c>
-      <c r="M16" s="13">
+        <v>24548120.503465608</v>
+      </c>
+      <c r="M16" s="12">
         <f t="shared" si="1"/>
-        <v>-49449190.162170991</v>
+        <v>-25530045.323604234</v>
       </c>
     </row>
     <row r="17" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G17">
         <v>12</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="12">
         <f>-I16/(13-G17)</f>
-        <v>179814501.60038656</v>
-      </c>
-      <c r="I17" s="13">
+        <v>155763595.56574795</v>
+      </c>
+      <c r="I17" s="12">
         <f>0</f>
         <v>0</v>
       </c>
       <c r="K17">
         <v>12</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="12">
         <f>-M16/(13-K17)</f>
-        <v>49449190.162170991</v>
-      </c>
-      <c r="M17" s="13">
+        <v>25530045.323604234</v>
+      </c>
+      <c r="M17" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -3430,10 +3558,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3217F4E5-1DB1-4E12-8A5A-100971F0E12D}">
-  <dimension ref="B3:D6"/>
+  <dimension ref="B6:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3442,33 +3570,11 @@
     <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3">
-        <v>26250</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4">
-        <v>30000</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="13">
+        <v>68</v>
+      </c>
+      <c r="C6" s="12">
         <f>(25000+12*811)*34*20</f>
         <v>23617760</v>
       </c>

--- a/Evaluación economica/Evaluacion Economica.xlsx
+++ b/Evaluación economica/Evaluacion Economica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\Desktop\Unal\APM\Proyecto\APM\Evaluación economica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FFD0D0-BDB6-4105-89FB-CDF336658D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511BCF32-B306-4F89-8201-5FE0BBAD5930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="750" xr2:uid="{86E37AEA-507A-4C4C-95B6-664C68D3C326}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="750" activeTab="2" xr2:uid="{86E37AEA-507A-4C4C-95B6-664C68D3C326}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo Opción 2" sheetId="8" r:id="rId1"/>
@@ -685,6 +685,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -697,7 +698,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -736,7 +736,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
@@ -1090,7 +1090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6E15CF-6437-416C-BEA1-56EE97CC6200}">
   <dimension ref="B4:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
@@ -1146,7 +1146,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="40" t="s">
         <v>45</v>
       </c>
       <c r="C5" t="s">
@@ -1205,7 +1205,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="39"/>
+      <c r="B6" s="40"/>
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -1262,7 +1262,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="39"/>
+      <c r="B7" s="40"/>
       <c r="C7" t="s">
         <v>42</v>
       </c>
@@ -1307,7 +1307,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="39"/>
+      <c r="B8" s="40"/>
       <c r="C8" t="s">
         <v>44</v>
       </c>
@@ -1364,7 +1364,7 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="39"/>
+      <c r="B9" s="40"/>
       <c r="C9" t="s">
         <v>73</v>
       </c>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="14" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:16" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="41"/>
+      <c r="C15" s="42"/>
       <c r="E15" s="10" t="s">
         <v>1</v>
       </c>
@@ -1723,7 +1723,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="40" t="s">
         <v>45</v>
       </c>
       <c r="C5" t="s">
@@ -1782,7 +1782,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="39"/>
+      <c r="B6" s="40"/>
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -1839,7 +1839,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="39"/>
+      <c r="B7" s="40"/>
       <c r="C7" t="s">
         <v>42</v>
       </c>
@@ -1884,7 +1884,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="39"/>
+      <c r="B8" s="40"/>
       <c r="C8" t="s">
         <v>43</v>
       </c>
@@ -1941,7 +1941,7 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="39"/>
+      <c r="B9" s="40"/>
       <c r="C9" t="s">
         <v>67</v>
       </c>
@@ -1998,7 +1998,7 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
+      <c r="B10" s="40"/>
       <c r="C10" t="s">
         <v>44</v>
       </c>
@@ -2055,7 +2055,7 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
+      <c r="B11" s="40"/>
       <c r="C11" t="s">
         <v>70</v>
       </c>
@@ -2112,7 +2112,7 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="39"/>
+      <c r="B12" s="40"/>
       <c r="C12" t="s">
         <v>73</v>
       </c>
@@ -2175,7 +2175,7 @@
       <c r="P13" s="18"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="40" t="s">
         <v>47</v>
       </c>
       <c r="C14" t="s">
@@ -2234,7 +2234,7 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="39"/>
+      <c r="B15" s="40"/>
       <c r="C15" t="s">
         <v>46</v>
       </c>
@@ -2349,10 +2349,10 @@
     </row>
     <row r="18" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:6" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="41"/>
+      <c r="C19" s="42"/>
       <c r="E19" s="10" t="s">
         <v>81</v>
       </c>
@@ -2468,8 +2468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C15420-8E99-4DFA-A905-BD022E7B42F7}">
   <dimension ref="C2:P36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2479,7 +2479,7 @@
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" customWidth="1"/>
     <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="14.44140625" customWidth="1"/>
     <col min="11" max="11" width="19.6640625" customWidth="1"/>
   </cols>
@@ -2506,9 +2506,6 @@
       <c r="M2" t="s">
         <v>56</v>
       </c>
-      <c r="O2" t="s">
-        <v>85</v>
-      </c>
       <c r="P2" t="s">
         <v>56</v>
       </c>
@@ -2526,7 +2523,7 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="12">
         <v>12000000</v>
       </c>
       <c r="K3" t="s">
@@ -2534,6 +2531,13 @@
       </c>
       <c r="L3">
         <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P3">
+        <f>30000*3956</f>
+        <v>118680000</v>
       </c>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.25">
@@ -2549,7 +2553,7 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="12">
         <v>8100000</v>
       </c>
       <c r="K4" t="s">
@@ -2564,7 +2568,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="12">
-        <f>30000*3956</f>
+        <f>P3</f>
         <v>118680000</v>
       </c>
       <c r="F5" t="s">
@@ -2573,7 +2577,7 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="12">
         <v>7500000</v>
       </c>
     </row>
@@ -2591,7 +2595,7 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="12">
         <v>6200000</v>
       </c>
     </row>
@@ -2609,7 +2613,7 @@
       <c r="G7">
         <v>5</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="12">
         <v>5500000</v>
       </c>
     </row>
@@ -2620,7 +2624,7 @@
       <c r="G8">
         <v>3</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="12">
         <v>5800000</v>
       </c>
     </row>
@@ -2631,7 +2635,7 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="12">
         <v>13500000</v>
       </c>
     </row>
@@ -3006,12 +3010,12 @@
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
       <c r="G32" s="13">
         <f>SUM(G17:G31)</f>
         <v>31111858.186399996</v>
@@ -3200,7 +3204,7 @@
       <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="39">
         <f>Datos!C10</f>
         <v>0.02</v>
       </c>
@@ -3260,7 +3264,7 @@
       <c r="B6" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="39">
         <f>Datos!C10</f>
         <v>0.02</v>
       </c>
